--- a/2017-20 Red Pine Slash Dimensions 11-4-20.xlsx
+++ b/2017-20 Red Pine Slash Dimensions 11-4-20.xlsx
@@ -36,6 +36,64 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Peter Smallidge</author>
+  </authors>
+  <commentList>
+    <comment ref="E131" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peter Smallidge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+original measurement was 5.5. changed to 6.5 because more slash was added to this point after the initial measurement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F131" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peter Smallidge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+original measurement was -0.5. changed to 2.5 because more slash was added to this point after the initial measurement.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -249,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +344,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1345,13 +1416,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3000" topLeftCell="A124" activePane="bottomLeft"/>
       <selection activeCell="I123" sqref="I123"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,27 +1573,27 @@
         <v>39.5</v>
       </c>
       <c r="K3" s="63">
-        <f>E3-D3</f>
+        <f t="shared" ref="K3:K34" si="0">E3-D3</f>
         <v>11</v>
       </c>
       <c r="L3" s="63">
-        <f>F3-D3</f>
+        <f t="shared" ref="L3:L34" si="1">F3-D3</f>
         <v>5</v>
       </c>
       <c r="M3" s="63">
-        <f>J3-C3</f>
+        <f t="shared" ref="M3:M34" si="2">J3-C3</f>
         <v>30.5</v>
       </c>
       <c r="N3" s="62">
-        <f>(G3+H3-I3+D3)*-1</f>
+        <f t="shared" ref="N3:N34" si="3">(G3+H3-I3+D3)*-1</f>
         <v>-4.6999999999999993</v>
       </c>
       <c r="O3" s="64">
-        <f>100*N3/M3</f>
+        <f t="shared" ref="O3:O34" si="4">100*N3/M3</f>
         <v>-15.409836065573769</v>
       </c>
       <c r="P3" s="62">
-        <f>-N3+L3</f>
+        <f t="shared" ref="P3:P34" si="5">-N3+L3</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="Q3" s="51" t="s">
@@ -1570,27 +1641,27 @@
         <v>29</v>
       </c>
       <c r="K4" s="63">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="L4" s="63">
-        <f>F4-D4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M4" s="63">
-        <f>J4-C4</f>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
       <c r="N4" s="62">
-        <f>(G4+H4-I4+D4)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
       <c r="O4" s="64">
-        <f>100*N4/M4</f>
+        <f t="shared" si="4"/>
         <v>-17.647058823529413</v>
       </c>
       <c r="P4" s="62">
-        <f>-N4+L4</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="Q4" s="51" t="s">
@@ -1638,27 +1709,27 @@
         <v>29</v>
       </c>
       <c r="K5" s="63">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L5" s="63">
-        <f>F5-D5</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M5" s="63">
-        <f>J5-C5</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="N5" s="62">
-        <f>(G5+H5-I5+D5)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="O5" s="64">
-        <f>100*N5/M5</f>
+        <f t="shared" si="4"/>
         <v>-18.181818181818183</v>
       </c>
       <c r="P5" s="62">
-        <f>-N5+L5</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q5" s="51" t="s">
@@ -1706,27 +1777,27 @@
         <v>24.5</v>
       </c>
       <c r="K6" s="63">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L6" s="63">
-        <f>F6-D6</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M6" s="63">
-        <f>J6-C6</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N6" s="62">
-        <f>(G6+H6-I6+D6)*-1</f>
+        <f t="shared" si="3"/>
         <v>-3.5</v>
       </c>
       <c r="O6" s="64">
-        <f>100*N6/M6</f>
+        <f t="shared" si="4"/>
         <v>-17.5</v>
       </c>
       <c r="P6" s="62">
-        <f>-N6+L6</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q6" s="51" t="s">
@@ -1774,27 +1845,27 @@
         <v>40</v>
       </c>
       <c r="K7" s="63">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L7" s="63">
-        <f>F7-D7</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M7" s="63">
-        <f>J7-C7</f>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
       <c r="N7" s="62">
-        <f>(G7+H7-I7+D7)*-1</f>
+        <f t="shared" si="3"/>
         <v>-5.6999999999999993</v>
       </c>
       <c r="O7" s="64">
-        <f>100*N7/M7</f>
+        <f t="shared" si="4"/>
         <v>-16.521739130434778</v>
       </c>
       <c r="P7" s="62">
-        <f>-N7+L7</f>
+        <f t="shared" si="5"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="Q7" s="51" t="s">
@@ -1842,27 +1913,27 @@
         <v>38</v>
       </c>
       <c r="K8" s="63">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L8" s="63">
-        <f>F8-D8</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M8" s="63">
-        <f>J8-C8</f>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
       <c r="N8" s="62">
-        <f>(G8+H8-I8+D8)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
       <c r="O8" s="64">
-        <f>100*N8/M8</f>
+        <f t="shared" si="4"/>
         <v>-13.043478260869565</v>
       </c>
       <c r="P8" s="62">
-        <f>-N8+L8</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q8" s="51" t="s">
@@ -1910,27 +1981,27 @@
         <v>38.5</v>
       </c>
       <c r="K9" s="63">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="L9" s="63">
-        <f>F9-D9</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M9" s="63">
-        <f>J9-C9</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="N9" s="62">
-        <f>(G9+H9-I9+D9)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="O9" s="64">
-        <f>100*N9/M9</f>
+        <f t="shared" si="4"/>
         <v>-12.121212121212121</v>
       </c>
       <c r="P9" s="62">
-        <f>-N9+L9</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="Q9" s="51" t="s">
@@ -1978,27 +2049,27 @@
         <v>39.5</v>
       </c>
       <c r="K10" s="63">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L10" s="63">
-        <f>F10-D10</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M10" s="63">
-        <f>J10-C10</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="N10" s="62">
-        <f>(G10+H10-I10+D10)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
       <c r="O10" s="64">
-        <f>100*N10/M10</f>
+        <f t="shared" si="4"/>
         <v>-12.857142857142858</v>
       </c>
       <c r="P10" s="62">
-        <f>-N10+L10</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q10" s="51" t="s">
@@ -2046,27 +2117,27 @@
         <v>38</v>
       </c>
       <c r="K11" s="69">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L11" s="69">
-        <f>F11-D11</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="M11" s="69">
-        <f>J11-C11</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N11" s="69">
-        <f>(G11+H11-I11+D11)*-1</f>
+        <f t="shared" si="3"/>
         <v>-5.2999999999999989</v>
       </c>
       <c r="O11" s="70">
-        <f>100*N11/M11</f>
+        <f t="shared" si="4"/>
         <v>-18.275862068965512</v>
       </c>
       <c r="P11" s="69">
-        <f>-N11+L11</f>
+        <f t="shared" si="5"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="Q11" s="67" t="s">
@@ -2114,27 +2185,27 @@
         <v>33.5</v>
       </c>
       <c r="K12" s="69">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L12" s="69">
-        <f>F12-D12</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M12" s="69">
-        <f>J12-C12</f>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
       <c r="N12" s="69">
-        <f>(G12+H12-I12+D12)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="O12" s="70">
-        <f>100*N12/M12</f>
+        <f t="shared" si="4"/>
         <v>-19.672131147540984</v>
       </c>
       <c r="P12" s="69">
-        <f>-N12+L12</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="Q12" s="67" t="s">
@@ -2182,27 +2253,27 @@
         <v>34</v>
       </c>
       <c r="K13" s="69">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="L13" s="69">
-        <f>F13-D13</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M13" s="69">
-        <f>J13-C13</f>
+        <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
       <c r="N13" s="69">
-        <f>(G13+H13-I13+D13)*-1</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="O13" s="70">
-        <f>100*N13/M13</f>
+        <f t="shared" si="4"/>
         <v>-16.949152542372882</v>
       </c>
       <c r="P13" s="69">
-        <f>-N13+L13</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q13" s="67" t="s">
@@ -2250,27 +2321,27 @@
         <v>34</v>
       </c>
       <c r="K14" s="69">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="L14" s="69">
-        <f>F14-D14</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="M14" s="69">
-        <f>J14-C14</f>
+        <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
       <c r="N14" s="69">
-        <f>(G14+H14-I14+D14)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
       <c r="O14" s="70">
-        <f>100*N14/M14</f>
+        <f t="shared" si="4"/>
         <v>-15.254237288135593</v>
       </c>
       <c r="P14" s="69">
-        <f>-N14+L14</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q14" s="67" t="s">
@@ -2318,27 +2389,27 @@
         <v>43</v>
       </c>
       <c r="K15" s="63">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L15" s="63">
-        <f>F15-D15</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="M15" s="63">
-        <f>J15-C15</f>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
       <c r="N15" s="62">
-        <f>(G15+H15-I15+D15)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6.8000000000000007</v>
       </c>
       <c r="O15" s="64">
-        <f>100*N15/M15</f>
+        <f t="shared" si="4"/>
         <v>-20.923076923076927</v>
       </c>
       <c r="P15" s="62">
-        <f>-N15+L15</f>
+        <f t="shared" si="5"/>
         <v>12.3</v>
       </c>
       <c r="Q15" s="51" t="s">
@@ -2386,27 +2457,27 @@
         <v>37</v>
       </c>
       <c r="K16" s="63">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="L16" s="63">
-        <f>F16-D16</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="M16" s="63">
-        <f>J16-C16</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="N16" s="62">
-        <f>(G16+H16-I16+D16)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
       <c r="O16" s="64">
-        <f>100*N16/M16</f>
+        <f t="shared" si="4"/>
         <v>-22.058823529411764</v>
       </c>
       <c r="P16" s="62">
-        <f>-N16+L16</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="Q16" s="51" t="s">
@@ -2454,27 +2525,27 @@
         <v>38.5</v>
       </c>
       <c r="K17" s="63">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L17" s="63">
-        <f>F17-D17</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M17" s="63">
-        <f>J17-C17</f>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
       <c r="N17" s="62">
-        <f>(G17+H17-I17+D17)*-1</f>
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
       <c r="O17" s="64">
-        <f>100*N17/M17</f>
+        <f t="shared" si="4"/>
         <v>-23.188405797101449</v>
       </c>
       <c r="P17" s="62">
-        <f>-N17+L17</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Q17" s="51" t="s">
@@ -2522,27 +2593,27 @@
         <v>35</v>
       </c>
       <c r="K18" s="63">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="L18" s="63">
-        <f>F18-D18</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M18" s="63">
-        <f>J18-C18</f>
+        <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
       <c r="N18" s="62">
-        <f>(G18+H18-I18+D18)*-1</f>
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
       <c r="O18" s="64">
-        <f>100*N18/M18</f>
+        <f t="shared" si="4"/>
         <v>-25.396825396825395</v>
       </c>
       <c r="P18" s="62">
-        <f>-N18+L18</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Q18" s="51" t="s">
@@ -2590,27 +2661,27 @@
         <v>41</v>
       </c>
       <c r="K19" s="63">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="L19" s="63">
-        <f>F19-D19</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="M19" s="63">
-        <f>J19-C19</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="N19" s="62">
-        <f>(G19+H19-I19+D19)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6.1999999999999993</v>
       </c>
       <c r="O19" s="64">
-        <f>100*N19/M19</f>
+        <f t="shared" si="4"/>
         <v>-19.999999999999996</v>
       </c>
       <c r="P19" s="62">
-        <f>-N19+L19</f>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="Q19" s="51" t="s">
@@ -2658,27 +2729,27 @@
         <v>34</v>
       </c>
       <c r="K20" s="63">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L20" s="63">
-        <f>F20-D20</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M20" s="63">
-        <f>J20-C20</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="N20" s="62">
-        <f>(G20+H20-I20+D20)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6.5</v>
       </c>
       <c r="O20" s="64">
-        <f>100*N20/M20</f>
+        <f t="shared" si="4"/>
         <v>-20.3125</v>
       </c>
       <c r="P20" s="62">
-        <f>-N20+L20</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Q20" s="51" t="s">
@@ -2726,27 +2797,27 @@
         <v>36.5</v>
       </c>
       <c r="K21" s="63">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L21" s="63">
-        <f>F21-D21</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="M21" s="63">
-        <f>J21-C21</f>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
       <c r="N21" s="62">
-        <f>(G21+H21-I21+D21)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="O21" s="64">
-        <f>100*N21/M21</f>
+        <f t="shared" si="4"/>
         <v>-18.46153846153846</v>
       </c>
       <c r="P21" s="62">
-        <f>-N21+L21</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="Q21" s="51" t="s">
@@ -2794,27 +2865,27 @@
         <v>32.5</v>
       </c>
       <c r="K22" s="63">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L22" s="63">
-        <f>F22-D22</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M22" s="63">
-        <f>J22-C22</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N22" s="62">
-        <f>(G22+H22-I22+D22)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6.5</v>
       </c>
       <c r="O22" s="64">
-        <f>100*N22/M22</f>
+        <f t="shared" si="4"/>
         <v>-22.413793103448278</v>
       </c>
       <c r="P22" s="62">
-        <f>-N22+L22</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q22" s="51" t="s">
@@ -2862,27 +2933,27 @@
         <v>34.5</v>
       </c>
       <c r="K23" s="63">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L23" s="63">
-        <f>F23-D23</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M23" s="63">
-        <f>J23-C23</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="N23" s="62">
-        <f>(G23+H23-I23+D23)*-1</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="O23" s="64">
-        <f>100*N23/M23</f>
+        <f t="shared" si="4"/>
         <v>-21.739130434782609</v>
       </c>
       <c r="P23" s="62">
-        <f>-N23+L23</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q23" s="51" t="s">
@@ -2930,27 +3001,27 @@
         <v>27</v>
       </c>
       <c r="K24" s="63">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="L24" s="63">
-        <f>F24-D24</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="M24" s="63">
-        <f>J24-C24</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="N24" s="62">
-        <f>(G24+H24-I24+D24)*-1</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="O24" s="64">
-        <f>100*N24/M24</f>
+        <f t="shared" si="4"/>
         <v>-22.727272727272727</v>
       </c>
       <c r="P24" s="62">
-        <f>-N24+L24</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="Q24" s="51" t="s">
@@ -2998,27 +3069,27 @@
         <v>25.5</v>
       </c>
       <c r="K25" s="63">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="L25" s="63">
-        <f>F25-D25</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M25" s="63">
-        <f>J25-C25</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="N25" s="62">
-        <f>(G25+H25-I25+D25)*-1</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="O25" s="64">
-        <f>100*N25/M25</f>
+        <f t="shared" si="4"/>
         <v>-23.80952380952381</v>
       </c>
       <c r="P25" s="62">
-        <f>-N25+L25</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q25" s="51" t="s">
@@ -3066,27 +3137,27 @@
         <v>24.5</v>
       </c>
       <c r="K26" s="63">
-        <f>E26-D26</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L26" s="63">
-        <f>F26-D26</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M26" s="63">
-        <f>J26-C26</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N26" s="62">
-        <f>(G26+H26-I26+D26)*-1</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
       <c r="O26" s="64">
-        <f>100*N26/M26</f>
+        <f t="shared" si="4"/>
         <v>-22.5</v>
       </c>
       <c r="P26" s="62">
-        <f>-N26+L26</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="Q26" s="51" t="s">
@@ -3134,27 +3205,27 @@
         <v>39.5</v>
       </c>
       <c r="K27" s="63">
-        <f>E27-D27</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L27" s="63">
-        <f>F27-D27</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M27" s="63">
-        <f>J27-C27</f>
+        <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
       <c r="N27" s="62">
-        <f>(G27+H27-I27+D27)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
       <c r="O27" s="64">
-        <f>100*N27/M27</f>
+        <f t="shared" si="4"/>
         <v>-26.315789473684209</v>
       </c>
       <c r="P27" s="62">
-        <f>-N27+L27</f>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="Q27" s="51" t="s">
@@ -3202,27 +3273,27 @@
         <v>35</v>
       </c>
       <c r="K28" s="63">
-        <f>E28-D28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L28" s="63">
-        <f>F28-D28</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M28" s="63">
-        <f>J28-C28</f>
+        <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
       <c r="N28" s="62">
-        <f>(G28+H28-I28+D28)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
       <c r="O28" s="64">
-        <f>100*N28/M28</f>
+        <f t="shared" si="4"/>
         <v>-23.80952380952381</v>
       </c>
       <c r="P28" s="62">
-        <f>-N28+L28</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Q28" s="51" t="s">
@@ -3270,27 +3341,27 @@
         <v>34.5</v>
       </c>
       <c r="K29" s="63">
-        <f>E29-D29</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="L29" s="63">
-        <f>F29-D29</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M29" s="63">
-        <f>J29-C29</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N29" s="62">
-        <f>(G29+H29-I29+D29)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
       <c r="O29" s="64">
-        <f>100*N29/M29</f>
+        <f t="shared" si="4"/>
         <v>-25.862068965517242</v>
       </c>
       <c r="P29" s="62">
-        <f>-N29+L29</f>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="Q29" s="51" t="s">
@@ -3338,27 +3409,27 @@
         <v>33.5</v>
       </c>
       <c r="K30" s="63">
-        <f>E30-D30</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="L30" s="63">
-        <f>F30-D30</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M30" s="63">
-        <f>J30-C30</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N30" s="62">
-        <f>(G30+H30-I30+D30)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
       <c r="O30" s="64">
-        <f>100*N30/M30</f>
+        <f t="shared" si="4"/>
         <v>-25</v>
       </c>
       <c r="P30" s="62">
-        <f>-N30+L30</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Q30" s="51" t="s">
@@ -3406,27 +3477,27 @@
         <v>39.5</v>
       </c>
       <c r="K31" s="63">
-        <f>E31-D31</f>
+        <f t="shared" si="0"/>
         <v>5.45</v>
       </c>
       <c r="L31" s="63">
-        <f>F31-D31</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M31" s="63">
-        <f>J31-C31</f>
+        <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
       <c r="N31" s="62">
-        <f>(G31+H31-I31+D31)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7.6999999999999993</v>
       </c>
       <c r="O31" s="64">
-        <f>100*N31/M31</f>
+        <f t="shared" si="4"/>
         <v>-24.444444444444439</v>
       </c>
       <c r="P31" s="62">
-        <f>-N31+L31</f>
+        <f t="shared" si="5"/>
         <v>10.7</v>
       </c>
       <c r="Q31" s="51" t="s">
@@ -3474,27 +3545,27 @@
         <v>33</v>
       </c>
       <c r="K32" s="63">
-        <f>E32-D32</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="L32" s="63">
-        <f>F32-D32</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="M32" s="63">
-        <f>J32-C32</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N32" s="62">
-        <f>(G32+H32-I32+D32)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="O32" s="64">
-        <f>100*N32/M32</f>
+        <f t="shared" si="4"/>
         <v>-23.333333333333332</v>
       </c>
       <c r="P32" s="62">
-        <f>-N32+L32</f>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="Q32" s="51" t="s">
@@ -3542,27 +3613,27 @@
         <v>35.5</v>
       </c>
       <c r="K33" s="63">
-        <f>E33-D33</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="L33" s="63">
-        <f>F33-D33</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M33" s="63">
-        <f>J33-C33</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="N33" s="62">
-        <f>(G33+H33-I33+D33)*-1</f>
+        <f t="shared" si="3"/>
         <v>-6.5</v>
       </c>
       <c r="O33" s="64">
-        <f>100*N33/M33</f>
+        <f t="shared" si="4"/>
         <v>-24.074074074074073</v>
       </c>
       <c r="P33" s="62">
-        <f>-N33+L33</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Q33" s="51" t="s">
@@ -3610,27 +3681,27 @@
         <v>32.5</v>
       </c>
       <c r="K34" s="63">
-        <f>E34-D34</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="L34" s="63">
-        <f>F34-D34</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M34" s="63">
-        <f>J34-C34</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N34" s="62">
-        <f>(G34+H34-I34+D34)*-1</f>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="O34" s="64">
-        <f>100*N34/M34</f>
+        <f t="shared" si="4"/>
         <v>-24.137931034482758</v>
       </c>
       <c r="P34" s="62">
-        <f>-N34+L34</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q34" s="51" t="s">
@@ -3678,27 +3749,27 @@
         <v>47</v>
       </c>
       <c r="K35" s="63">
-        <f>E35-D35</f>
+        <f t="shared" ref="K35:K66" si="6">E35-D35</f>
         <v>4.5</v>
       </c>
       <c r="L35" s="63">
-        <f>F35-D35</f>
+        <f t="shared" ref="L35:L66" si="7">F35-D35</f>
         <v>2.5</v>
       </c>
       <c r="M35" s="63">
-        <f>J35-C35</f>
+        <f t="shared" ref="M35:M66" si="8">J35-C35</f>
         <v>38.5</v>
       </c>
       <c r="N35" s="62">
-        <f>(G35+H35-I35+D35)*-1</f>
+        <f t="shared" ref="N35:N66" si="9">(G35+H35-I35+D35)*-1</f>
         <v>-8.9</v>
       </c>
       <c r="O35" s="64">
-        <f>100*N35/M35</f>
+        <f t="shared" ref="O35:O66" si="10">100*N35/M35</f>
         <v>-23.116883116883116</v>
       </c>
       <c r="P35" s="62">
-        <f>-N35+L35</f>
+        <f t="shared" ref="P35:P66" si="11">-N35+L35</f>
         <v>11.4</v>
       </c>
       <c r="Q35" s="51" t="s">
@@ -3746,27 +3817,27 @@
         <v>45</v>
       </c>
       <c r="K36" s="63">
-        <f>E36-D36</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="L36" s="63">
-        <f>F36-D36</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M36" s="63">
-        <f>J36-C36</f>
+        <f t="shared" si="8"/>
         <v>42.5</v>
       </c>
       <c r="N36" s="62">
-        <f>(G36+H36-I36+D36)*-1</f>
+        <f t="shared" si="9"/>
         <v>-9</v>
       </c>
       <c r="O36" s="64">
-        <f>100*N36/M36</f>
+        <f t="shared" si="10"/>
         <v>-21.176470588235293</v>
       </c>
       <c r="P36" s="62">
-        <f>-N36+L36</f>
+        <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
       <c r="Q36" s="51" t="s">
@@ -3814,27 +3885,27 @@
         <v>42.5</v>
       </c>
       <c r="K37" s="63">
-        <f>E37-D37</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="L37" s="63">
-        <f>F37-D37</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="M37" s="63">
-        <f>J37-C37</f>
+        <f t="shared" si="8"/>
         <v>38.5</v>
       </c>
       <c r="N37" s="62">
-        <f>(G37+H37-I37+D37)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8.5</v>
       </c>
       <c r="O37" s="64">
-        <f>100*N37/M37</f>
+        <f t="shared" si="10"/>
         <v>-22.077922077922079</v>
       </c>
       <c r="P37" s="62">
-        <f>-N37+L37</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Q37" s="51" t="s">
@@ -3882,27 +3953,27 @@
         <v>42</v>
       </c>
       <c r="K38" s="63">
-        <f>E38-D38</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="L38" s="63">
-        <f>F38-D38</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="M38" s="63">
-        <f>J38-C38</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="N38" s="62">
-        <f>(G38+H38-I38+D38)*-1</f>
+        <f t="shared" si="9"/>
         <v>-9</v>
       </c>
       <c r="O38" s="64">
-        <f>100*N38/M38</f>
+        <f t="shared" si="10"/>
         <v>-23.076923076923077</v>
       </c>
       <c r="P38" s="62">
-        <f>-N38+L38</f>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="Q38" s="51" t="s">
@@ -3950,27 +4021,27 @@
         <v>39</v>
       </c>
       <c r="K39" s="63">
-        <f>E39-D39</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L39" s="63">
-        <f>F39-D39</f>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="M39" s="63">
-        <f>J39-C39</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="N39" s="62">
-        <f>(G39+H39-I39+D39)*-1</f>
+        <f t="shared" si="9"/>
         <v>-5.9</v>
       </c>
       <c r="O39" s="64">
-        <f>100*N39/M39</f>
+        <f t="shared" si="10"/>
         <v>-18.4375</v>
       </c>
       <c r="P39" s="62">
-        <f>-N39+L39</f>
+        <f t="shared" si="11"/>
         <v>9.4</v>
       </c>
       <c r="Q39" s="51" t="s">
@@ -4018,27 +4089,27 @@
         <v>35.5</v>
       </c>
       <c r="K40" s="63">
-        <f>E40-D40</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L40" s="63">
-        <f>F40-D40</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M40" s="63">
-        <f>J40-C40</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="N40" s="62">
-        <f>(G40+H40-I40+D40)*-1</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="O40" s="64">
-        <f>100*N40/M40</f>
+        <f t="shared" si="10"/>
         <v>-20</v>
       </c>
       <c r="P40" s="62">
-        <f>-N40+L40</f>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="Q40" s="51" t="s">
@@ -4086,27 +4157,27 @@
         <v>37.5</v>
       </c>
       <c r="K41" s="63">
-        <f>E41-D41</f>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="L41" s="63">
-        <f>F41-D41</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M41" s="63">
-        <f>J41-C41</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="N41" s="62">
-        <f>(G41+H41-I41+D41)*-1</f>
+        <f t="shared" si="9"/>
         <v>-7.5</v>
       </c>
       <c r="O41" s="64">
-        <f>100*N41/M41</f>
+        <f t="shared" si="10"/>
         <v>-23.4375</v>
       </c>
       <c r="P41" s="62">
-        <f>-N41+L41</f>
+        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
       <c r="Q41" s="51" t="s">
@@ -4154,27 +4225,27 @@
         <v>38</v>
       </c>
       <c r="K42" s="63">
-        <f>E42-D42</f>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="L42" s="63">
-        <f>F42-D42</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M42" s="63">
-        <f>J42-C42</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="N42" s="62">
-        <f>(G42+H42-I42+D42)*-1</f>
+        <f t="shared" si="9"/>
         <v>-7.5</v>
       </c>
       <c r="O42" s="64">
-        <f>100*N42/M42</f>
+        <f t="shared" si="10"/>
         <v>-21.428571428571427</v>
       </c>
       <c r="P42" s="62">
-        <f>-N42+L42</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q42" s="51" t="s">
@@ -4222,27 +4293,27 @@
         <v>34</v>
       </c>
       <c r="K43" s="63">
-        <f>E43-D43</f>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="L43" s="63">
-        <f>F43-D43</f>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="M43" s="63">
-        <f>J43-C43</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="N43" s="62">
-        <f>(G43+H43-I43+D43)*-1</f>
+        <f t="shared" si="9"/>
         <v>-5.5</v>
       </c>
       <c r="O43" s="64">
-        <f>100*N43/M43</f>
+        <f t="shared" si="10"/>
         <v>-21.153846153846153</v>
       </c>
       <c r="P43" s="62">
-        <f>-N43+L43</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Q43" s="51" t="s">
@@ -4290,27 +4361,27 @@
         <v>33</v>
       </c>
       <c r="K44" s="63">
-        <f>E44-D44</f>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="L44" s="63">
-        <f>F44-D44</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M44" s="63">
-        <f>J44-C44</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="N44" s="62">
-        <f>(G44+H44-I44+D44)*-1</f>
+        <f t="shared" si="9"/>
         <v>-5.0999999999999996</v>
       </c>
       <c r="O44" s="64">
-        <f>100*N44/M44</f>
+        <f t="shared" si="10"/>
         <v>-18.888888888888886</v>
       </c>
       <c r="P44" s="62">
-        <f>-N44+L44</f>
+        <f t="shared" si="11"/>
         <v>8.1</v>
       </c>
       <c r="Q44" s="51" t="s">
@@ -4358,27 +4429,27 @@
         <v>30.5</v>
       </c>
       <c r="K45" s="63">
-        <f>E45-D45</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L45" s="63">
-        <f>F45-D45</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M45" s="63">
-        <f>J45-C45</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="N45" s="62">
-        <f>(G45+H45-I45+D45)*-1</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="O45" s="64">
-        <f>100*N45/M45</f>
+        <f t="shared" si="10"/>
         <v>-23.076923076923077</v>
       </c>
       <c r="P45" s="62">
-        <f>-N45+L45</f>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="Q45" s="51" t="s">
@@ -4426,27 +4497,27 @@
         <v>26</v>
       </c>
       <c r="K46" s="63">
-        <f>E46-D46</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L46" s="63">
-        <f>F46-D46</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M46" s="63">
-        <f>J46-C46</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="N46" s="62">
-        <f>(G46+H46-I46+D46)*-1</f>
+        <f t="shared" si="9"/>
         <v>-4.5</v>
       </c>
       <c r="O46" s="64">
-        <f>100*N46/M46</f>
+        <f t="shared" si="10"/>
         <v>-19.565217391304348</v>
       </c>
       <c r="P46" s="62">
-        <f>-N46+L46</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="Q46" s="51" t="s">
@@ -4494,27 +4565,27 @@
         <v>34.5</v>
       </c>
       <c r="K47" s="63">
-        <f>E47-D47</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L47" s="63">
-        <f>F47-D47</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M47" s="63">
-        <f>J47-C47</f>
+        <f t="shared" si="8"/>
         <v>24.5</v>
       </c>
       <c r="N47" s="62">
-        <f>(G47+H47-I47+D47)*-1</f>
+        <f t="shared" si="9"/>
         <v>-5.5</v>
       </c>
       <c r="O47" s="64">
-        <f>100*N47/M47</f>
+        <f t="shared" si="10"/>
         <v>-22.448979591836736</v>
       </c>
       <c r="P47" s="62">
-        <f>-N47+L47</f>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="Q47" s="51" t="s">
@@ -4562,27 +4633,27 @@
         <v>31.5</v>
       </c>
       <c r="K48" s="63">
-        <f>E48-D48</f>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="L48" s="63">
-        <f>F48-D48</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M48" s="63">
-        <f>J48-C48</f>
+        <f t="shared" si="8"/>
         <v>25.5</v>
       </c>
       <c r="N48" s="62">
-        <f>(G48+H48-I48+D48)*-1</f>
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
       <c r="O48" s="64">
-        <f>100*N48/M48</f>
+        <f t="shared" si="10"/>
         <v>-19.607843137254903</v>
       </c>
       <c r="P48" s="62">
-        <f>-N48+L48</f>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
       <c r="Q48" s="51" t="s">
@@ -4630,27 +4701,27 @@
         <v>30.5</v>
       </c>
       <c r="K49" s="63">
-        <f>E49-D49</f>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="L49" s="63">
-        <f>F49-D49</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M49" s="63">
-        <f>J49-C49</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N49" s="62">
-        <f>(G49+H49-I49+D49)*-1</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="O49" s="64">
-        <f>100*N49/M49</f>
+        <f t="shared" si="10"/>
         <v>-24</v>
       </c>
       <c r="P49" s="62">
-        <f>-N49+L49</f>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="Q49" s="51" t="s">
@@ -4698,27 +4769,27 @@
         <v>29</v>
       </c>
       <c r="K50" s="63">
-        <f>E50-D50</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="L50" s="63">
-        <f>F50-D50</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M50" s="63">
-        <f>J50-C50</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N50" s="62">
-        <f>(G50+H50-I50+D50)*-1</f>
+        <f t="shared" si="9"/>
         <v>-6</v>
       </c>
       <c r="O50" s="64">
-        <f>100*N50/M50</f>
+        <f t="shared" si="10"/>
         <v>-24</v>
       </c>
       <c r="P50" s="62">
-        <f>-N50+L50</f>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
       <c r="Q50" s="51" t="s">
@@ -4766,27 +4837,27 @@
         <v>45.5</v>
       </c>
       <c r="K51" s="69">
-        <f>E51-D51</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L51" s="69">
-        <f>F51-D51</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M51" s="69">
-        <f>J51-C51</f>
+        <f t="shared" si="8"/>
         <v>37.5</v>
       </c>
       <c r="N51" s="69">
-        <f>(G51+H51-I51+D51)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8.5</v>
       </c>
       <c r="O51" s="70">
-        <f>100*N51/M51</f>
+        <f t="shared" si="10"/>
         <v>-22.666666666666668</v>
       </c>
       <c r="P51" s="69">
-        <f>-N51+L51</f>
+        <f t="shared" si="11"/>
         <v>11.5</v>
       </c>
       <c r="Q51" s="67" t="s">
@@ -4834,27 +4905,27 @@
         <v>39</v>
       </c>
       <c r="K52" s="69">
-        <f>E52-D52</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="L52" s="69">
-        <f>F52-D52</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M52" s="69">
-        <f>J52-C52</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="N52" s="69">
-        <f>(G52+H52-I52+D52)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8.5</v>
       </c>
       <c r="O52" s="70">
-        <f>100*N52/M52</f>
+        <f t="shared" si="10"/>
         <v>-24.285714285714285</v>
       </c>
       <c r="P52" s="69">
-        <f>-N52+L52</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="Q52" s="67" t="s">
@@ -4902,27 +4973,27 @@
         <v>34.5</v>
       </c>
       <c r="K53" s="69">
-        <f>E53-D53</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="L53" s="69">
-        <f>F53-D53</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M53" s="69">
-        <f>J53-C53</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="N53" s="69">
-        <f>(G53+H53-I53+D53)*-1</f>
+        <f t="shared" si="9"/>
         <v>-7.5</v>
       </c>
       <c r="O53" s="70">
-        <f>100*N53/M53</f>
+        <f t="shared" si="10"/>
         <v>-25</v>
       </c>
       <c r="P53" s="69">
-        <f>-N53+L53</f>
+        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
       <c r="Q53" s="67" t="s">
@@ -4970,27 +5041,27 @@
         <v>37</v>
       </c>
       <c r="K54" s="69">
-        <f>E54-D54</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="L54" s="69">
-        <f>F54-D54</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M54" s="69">
-        <f>J54-C54</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="N54" s="69">
-        <f>(G54+H54-I54+D54)*-1</f>
+        <f t="shared" si="9"/>
         <v>-7.5</v>
       </c>
       <c r="O54" s="70">
-        <f>100*N54/M54</f>
+        <f t="shared" si="10"/>
         <v>-22.058823529411764</v>
       </c>
       <c r="P54" s="69">
-        <f>-N54+L54</f>
+        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
       <c r="Q54" s="67" t="s">
@@ -5038,27 +5109,27 @@
         <v>57</v>
       </c>
       <c r="K55" s="63">
-        <f>E55-D55</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L55" s="63">
-        <f>F55-D55</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M55" s="63">
-        <f>J55-C55</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="N55" s="62">
-        <f>(G55+H55-I55+D55)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8.3000000000000007</v>
       </c>
       <c r="O55" s="64">
-        <f>100*N55/M55</f>
+        <f t="shared" si="10"/>
         <v>-20.750000000000004</v>
       </c>
       <c r="P55" s="62">
-        <f>-N55+L55</f>
+        <f t="shared" si="11"/>
         <v>10.8</v>
       </c>
       <c r="Q55" s="51" t="s">
@@ -5106,27 +5177,27 @@
         <v>38</v>
       </c>
       <c r="K56" s="63">
-        <f>E56-D56</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L56" s="63">
-        <f>F56-D56</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M56" s="63">
-        <f>J56-C56</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="N56" s="62">
-        <f>(G56+H56-I56+D56)*-1</f>
+        <f t="shared" si="9"/>
         <v>-9</v>
       </c>
       <c r="O56" s="64">
-        <f>100*N56/M56</f>
+        <f t="shared" si="10"/>
         <v>-26.470588235294116</v>
       </c>
       <c r="P56" s="62">
-        <f>-N56+L56</f>
+        <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
       <c r="Q56" s="51" t="s">
@@ -5174,27 +5245,27 @@
         <v>42.5</v>
       </c>
       <c r="K57" s="63">
-        <f>E57-D57</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L57" s="63">
-        <f>F57-D57</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M57" s="63">
-        <f>J57-C57</f>
+        <f t="shared" si="8"/>
         <v>36.5</v>
       </c>
       <c r="N57" s="62">
-        <f>(G57+H57-I57+D57)*-1</f>
+        <f t="shared" si="9"/>
         <v>-9.5</v>
       </c>
       <c r="O57" s="64">
-        <f>100*N57/M57</f>
+        <f t="shared" si="10"/>
         <v>-26.027397260273972</v>
       </c>
       <c r="P57" s="62">
-        <f>-N57+L57</f>
+        <f t="shared" si="11"/>
         <v>11.5</v>
       </c>
       <c r="Q57" s="51" t="s">
@@ -5242,27 +5313,27 @@
         <v>37</v>
       </c>
       <c r="K58" s="63">
-        <f>E58-D58</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L58" s="63">
-        <f>F58-D58</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M58" s="63">
-        <f>J58-C58</f>
+        <f t="shared" si="8"/>
         <v>32.5</v>
       </c>
       <c r="N58" s="62">
-        <f>(G58+H58-I58+D58)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8.5</v>
       </c>
       <c r="O58" s="64">
-        <f>100*N58/M58</f>
+        <f t="shared" si="10"/>
         <v>-26.153846153846153</v>
       </c>
       <c r="P58" s="62">
-        <f>-N58+L58</f>
+        <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
       <c r="Q58" s="51" t="s">
@@ -5310,27 +5381,27 @@
         <v>31</v>
       </c>
       <c r="K59" s="63">
-        <f>E59-D59</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="L59" s="63">
-        <f>F59-D59</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M59" s="63">
-        <f>J59-C59</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="N59" s="62">
-        <f>(G59+H59-I59+D59)*-1</f>
+        <f t="shared" si="9"/>
         <v>-4.5</v>
       </c>
       <c r="O59" s="64">
-        <f>100*N59/M59</f>
+        <f t="shared" si="10"/>
         <v>-19.565217391304348</v>
       </c>
       <c r="P59" s="62">
-        <f>-N59+L59</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="Q59" s="51" t="s">
@@ -5378,27 +5449,27 @@
         <v>28</v>
       </c>
       <c r="K60" s="63">
-        <f>E60-D60</f>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="L60" s="63">
-        <f>F60-D60</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M60" s="63">
-        <f>J60-C60</f>
+        <f t="shared" si="8"/>
         <v>23.5</v>
       </c>
       <c r="N60" s="62">
-        <f>(G60+H60-I60+D60)*-1</f>
+        <f t="shared" si="9"/>
         <v>-4.5</v>
       </c>
       <c r="O60" s="64">
-        <f>100*N60/M60</f>
+        <f t="shared" si="10"/>
         <v>-19.148936170212767</v>
       </c>
       <c r="P60" s="62">
-        <f>-N60+L60</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="Q60" s="51" t="s">
@@ -5446,27 +5517,27 @@
         <v>35.5</v>
       </c>
       <c r="K61" s="63">
-        <f>E61-D61</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="L61" s="63">
-        <f>F61-D61</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="M61" s="63">
-        <f>J61-C61</f>
+        <f t="shared" si="8"/>
         <v>31.5</v>
       </c>
       <c r="N61" s="62">
-        <f>(G61+H61-I61+D61)*-1</f>
+        <f t="shared" si="9"/>
         <v>-7</v>
       </c>
       <c r="O61" s="64">
-        <f>100*N61/M61</f>
+        <f t="shared" si="10"/>
         <v>-22.222222222222221</v>
       </c>
       <c r="P61" s="62">
-        <f>-N61+L61</f>
+        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
       <c r="Q61" s="51" t="s">
@@ -5514,27 +5585,27 @@
         <v>26</v>
       </c>
       <c r="K62" s="63">
-        <f>E62-D62</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L62" s="63">
-        <f>F62-D62</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M62" s="63">
-        <f>J62-C62</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="N62" s="62">
-        <f>(G62+H62-I62+D62)*-1</f>
+        <f t="shared" si="9"/>
         <v>-4.5</v>
       </c>
       <c r="O62" s="64">
-        <f>100*N62/M62</f>
+        <f t="shared" si="10"/>
         <v>-20.454545454545453</v>
       </c>
       <c r="P62" s="62">
-        <f>-N62+L62</f>
+        <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
       <c r="Q62" s="51" t="s">
@@ -5582,27 +5653,27 @@
         <v>38</v>
       </c>
       <c r="K63" s="63">
-        <f>E63-D63</f>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="L63" s="63">
-        <f>F63-D63</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M63" s="63">
-        <f>J63-C63</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N63" s="62">
-        <f>(G63+H63-I63+D63)*-1</f>
+        <f t="shared" si="9"/>
         <v>-7.9</v>
       </c>
       <c r="O63" s="64">
-        <f>100*N63/M63</f>
+        <f t="shared" si="10"/>
         <v>-25.483870967741936</v>
       </c>
       <c r="P63" s="62">
-        <f>-N63+L63</f>
+        <f t="shared" si="11"/>
         <v>10.9</v>
       </c>
       <c r="Q63" s="51" t="s">
@@ -5650,27 +5721,27 @@
         <v>34.5</v>
       </c>
       <c r="K64" s="63">
-        <f>E64-D64</f>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="L64" s="63">
-        <f>F64-D64</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M64" s="63">
-        <f>J64-C64</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N64" s="62">
-        <f>(G64+H64-I64+D64)*-1</f>
+        <f t="shared" si="9"/>
         <v>-9</v>
       </c>
       <c r="O64" s="64">
-        <f>100*N64/M64</f>
+        <f t="shared" si="10"/>
         <v>-29.032258064516128</v>
       </c>
       <c r="P64" s="62">
-        <f>-N64+L64</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="Q64" s="51" t="s">
@@ -5718,27 +5789,27 @@
         <v>31</v>
       </c>
       <c r="K65" s="63">
-        <f>E65-D65</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="L65" s="63">
-        <f>F65-D65</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M65" s="63">
-        <f>J65-C65</f>
+        <f t="shared" si="8"/>
         <v>27.5</v>
       </c>
       <c r="N65" s="62">
-        <f>(G65+H65-I65+D65)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8</v>
       </c>
       <c r="O65" s="64">
-        <f>100*N65/M65</f>
+        <f t="shared" si="10"/>
         <v>-29.09090909090909</v>
       </c>
       <c r="P65" s="62">
-        <f>-N65+L65</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="Q65" s="51" t="s">
@@ -5786,27 +5857,27 @@
         <v>31</v>
       </c>
       <c r="K66" s="63">
-        <f>E66-D66</f>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="L66" s="63">
-        <f>F66-D66</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="M66" s="63">
-        <f>J66-C66</f>
+        <f t="shared" si="8"/>
         <v>27.5</v>
       </c>
       <c r="N66" s="62">
-        <f>(G66+H66-I66+D66)*-1</f>
+        <f t="shared" si="9"/>
         <v>-8</v>
       </c>
       <c r="O66" s="64">
-        <f>100*N66/M66</f>
+        <f t="shared" si="10"/>
         <v>-29.09090909090909</v>
       </c>
       <c r="P66" s="62">
-        <f>-N66+L66</f>
+        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
       <c r="Q66" s="51" t="s">
@@ -5854,27 +5925,27 @@
         <v>42</v>
       </c>
       <c r="K67" s="63">
-        <f>E67-D67</f>
+        <f t="shared" ref="K67:K98" si="12">E67-D67</f>
         <v>10</v>
       </c>
       <c r="L67" s="63">
-        <f>F67-D67</f>
+        <f t="shared" ref="L67:L98" si="13">F67-D67</f>
         <v>4.5</v>
       </c>
       <c r="M67" s="63">
-        <f>J67-C67</f>
+        <f t="shared" ref="M67:M98" si="14">J67-C67</f>
         <v>26.5</v>
       </c>
       <c r="N67" s="62">
-        <f>(G67+H67-I67+D67)*-1</f>
+        <f t="shared" ref="N67:N98" si="15">(G67+H67-I67+D67)*-1</f>
         <v>-10</v>
       </c>
       <c r="O67" s="64">
-        <f>100*N67/M67</f>
+        <f t="shared" ref="O67:O98" si="16">100*N67/M67</f>
         <v>-37.735849056603776</v>
       </c>
       <c r="P67" s="62">
-        <f>-N67+L67</f>
+        <f t="shared" ref="P67:P98" si="17">-N67+L67</f>
         <v>14.5</v>
       </c>
       <c r="Q67" s="51" t="s">
@@ -5922,27 +5993,27 @@
         <v>33</v>
       </c>
       <c r="K68" s="63">
-        <f>E68-D68</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="L68" s="63">
-        <f>F68-D68</f>
+        <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
       <c r="M68" s="63">
-        <f>J68-C68</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="N68" s="62">
-        <f>(G68+H68-I68+D68)*-1</f>
+        <f t="shared" si="15"/>
         <v>-9.3000000000000007</v>
       </c>
       <c r="O68" s="64">
-        <f>100*N68/M68</f>
+        <f t="shared" si="16"/>
         <v>-32.068965517241381</v>
       </c>
       <c r="P68" s="62">
-        <f>-N68+L68</f>
+        <f t="shared" si="17"/>
         <v>12.8</v>
       </c>
       <c r="Q68" s="51" t="s">
@@ -5990,27 +6061,27 @@
         <v>33</v>
       </c>
       <c r="K69" s="63">
-        <f>E69-D69</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="L69" s="63">
-        <f>F69-D69</f>
+        <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
       <c r="M69" s="63">
-        <f>J69-C69</f>
+        <f t="shared" si="14"/>
         <v>27.5</v>
       </c>
       <c r="N69" s="62">
-        <f>(G69+H69-I69+D69)*-1</f>
+        <f t="shared" si="15"/>
         <v>-10.5</v>
       </c>
       <c r="O69" s="64">
-        <f>100*N69/M69</f>
+        <f t="shared" si="16"/>
         <v>-38.18181818181818</v>
       </c>
       <c r="P69" s="62">
-        <f>-N69+L69</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="Q69" s="51" t="s">
@@ -6058,27 +6129,27 @@
         <v>27</v>
       </c>
       <c r="K70" s="63">
-        <f>E70-D70</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="L70" s="63">
-        <f>F70-D70</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="M70" s="63">
-        <f>J70-C70</f>
+        <f t="shared" si="14"/>
         <v>21.5</v>
       </c>
       <c r="N70" s="62">
-        <f>(G70+H70-I70+D70)*-1</f>
+        <f t="shared" si="15"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="O70" s="64">
-        <f>100*N70/M70</f>
+        <f t="shared" si="16"/>
         <v>-45.116279069767437</v>
       </c>
       <c r="P70" s="62">
-        <f>-N70+L70</f>
+        <f t="shared" si="17"/>
         <v>11.7</v>
       </c>
       <c r="Q70" s="51" t="s">
@@ -6126,27 +6197,27 @@
         <v>37.5</v>
       </c>
       <c r="K71" s="63">
-        <f>E71-D71</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L71" s="63">
-        <f>F71-D71</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="M71" s="63">
-        <f>J71-C71</f>
+        <f t="shared" si="14"/>
         <v>26.5</v>
       </c>
       <c r="N71" s="62">
-        <f>(G71+H71-I71+D71)*-1</f>
+        <f t="shared" si="15"/>
         <v>-8.9</v>
       </c>
       <c r="O71" s="64">
-        <f>100*N71/M71</f>
+        <f t="shared" si="16"/>
         <v>-33.584905660377359</v>
       </c>
       <c r="P71" s="62">
-        <f>-N71+L71</f>
+        <f t="shared" si="17"/>
         <v>13.9</v>
       </c>
       <c r="Q71" s="51" t="s">
@@ -6194,27 +6265,27 @@
         <v>35.5</v>
       </c>
       <c r="K72" s="63">
-        <f>E72-D72</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="L72" s="63">
-        <f>F72-D72</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="M72" s="63">
-        <f>J72-C72</f>
+        <f t="shared" si="14"/>
         <v>31.5</v>
       </c>
       <c r="N72" s="62">
-        <f>(G72+H72-I72+D72)*-1</f>
+        <f t="shared" si="15"/>
         <v>-10.8</v>
       </c>
       <c r="O72" s="64">
-        <f>100*N72/M72</f>
+        <f t="shared" si="16"/>
         <v>-34.285714285714285</v>
       </c>
       <c r="P72" s="62">
-        <f>-N72+L72</f>
+        <f t="shared" si="17"/>
         <v>14.8</v>
       </c>
       <c r="Q72" s="51" t="s">
@@ -6262,27 +6333,27 @@
         <v>33</v>
       </c>
       <c r="K73" s="63">
-        <f>E73-D73</f>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="L73" s="63">
-        <f>F73-D73</f>
+        <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
       <c r="M73" s="63">
-        <f>J73-C73</f>
+        <f t="shared" si="14"/>
         <v>28.5</v>
       </c>
       <c r="N73" s="62">
-        <f>(G73+H73-I73+D73)*-1</f>
+        <f t="shared" si="15"/>
         <v>-9.5</v>
       </c>
       <c r="O73" s="64">
-        <f>100*N73/M73</f>
+        <f t="shared" si="16"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="P73" s="62">
-        <f>-N73+L73</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="Q73" s="51" t="s">
@@ -6330,27 +6401,27 @@
         <v>32.5</v>
       </c>
       <c r="K74" s="63">
-        <f>E74-D74</f>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="L74" s="63">
-        <f>F74-D74</f>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="M74" s="63">
-        <f>J74-C74</f>
+        <f t="shared" si="14"/>
         <v>28.5</v>
       </c>
       <c r="N74" s="62">
-        <f>(G74+H74-I74+D74)*-1</f>
+        <f t="shared" si="15"/>
         <v>-9</v>
       </c>
       <c r="O74" s="64">
-        <f>100*N74/M74</f>
+        <f t="shared" si="16"/>
         <v>-31.578947368421051</v>
       </c>
       <c r="P74" s="62">
-        <f>-N74+L74</f>
+        <f t="shared" si="17"/>
         <v>10.5</v>
       </c>
       <c r="Q74" s="51" t="s">
@@ -6398,27 +6469,27 @@
         <v>29.5</v>
       </c>
       <c r="K75" s="63">
-        <f>E75-D75</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="L75" s="63">
-        <f>F75-D75</f>
+        <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
       <c r="M75" s="63">
-        <f>J75-C75</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="N75" s="62">
-        <f>(G75+H75-I75+D75)*-1</f>
+        <f t="shared" si="15"/>
         <v>-3.8000000000000007</v>
       </c>
       <c r="O75" s="64">
-        <f>100*N75/M75</f>
+        <f t="shared" si="16"/>
         <v>-21.111111111111114</v>
       </c>
       <c r="P75" s="62">
-        <f>-N75+L75</f>
+        <f t="shared" si="17"/>
         <v>11.3</v>
       </c>
       <c r="Q75" s="51" t="s">
@@ -6466,27 +6537,27 @@
         <v>24</v>
       </c>
       <c r="K76" s="63">
-        <f>E76-D76</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
       <c r="L76" s="63">
-        <f>F76-D76</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="M76" s="63">
-        <f>J76-C76</f>
+        <f t="shared" si="14"/>
         <v>18.5</v>
       </c>
       <c r="N76" s="62">
-        <f>(G76+H76-I76+D76)*-1</f>
+        <f t="shared" si="15"/>
         <v>-3.5</v>
       </c>
       <c r="O76" s="64">
-        <f>100*N76/M76</f>
+        <f t="shared" si="16"/>
         <v>-18.918918918918919</v>
       </c>
       <c r="P76" s="62">
-        <f>-N76+L76</f>
+        <f t="shared" si="17"/>
         <v>10.5</v>
       </c>
       <c r="Q76" s="51" t="s">
@@ -6534,27 +6605,27 @@
         <v>25</v>
       </c>
       <c r="K77" s="63">
-        <f>E77-D77</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
       <c r="L77" s="63">
-        <f>F77-D77</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="M77" s="63">
-        <f>J77-C77</f>
+        <f t="shared" si="14"/>
         <v>19.5</v>
       </c>
       <c r="N77" s="62">
-        <f>(G77+H77-I77+D77)*-1</f>
+        <f t="shared" si="15"/>
         <v>-3.8000000000000007</v>
       </c>
       <c r="O77" s="64">
-        <f>100*N77/M77</f>
+        <f t="shared" si="16"/>
         <v>-19.487179487179489</v>
       </c>
       <c r="P77" s="62">
-        <f>-N77+L77</f>
+        <f t="shared" si="17"/>
         <v>10.8</v>
       </c>
       <c r="Q77" s="51" t="s">
@@ -6602,27 +6673,27 @@
         <v>23</v>
       </c>
       <c r="K78" s="63">
-        <f>E78-D78</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L78" s="63">
-        <f>F78-D78</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="M78" s="63">
-        <f>J78-C78</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="N78" s="62">
-        <f>(G78+H78-I78+D78)*-1</f>
+        <f t="shared" si="15"/>
         <v>-4.3000000000000007</v>
       </c>
       <c r="O78" s="64">
-        <f>100*N78/M78</f>
+        <f t="shared" si="16"/>
         <v>-22.631578947368425</v>
       </c>
       <c r="P78" s="62">
-        <f>-N78+L78</f>
+        <f t="shared" si="17"/>
         <v>10.3</v>
       </c>
       <c r="Q78" s="51" t="s">
@@ -6670,27 +6741,27 @@
         <v>39</v>
       </c>
       <c r="K79" s="63">
-        <f>E79-D79</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
       <c r="L79" s="63">
-        <f>F79-D79</f>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="M79" s="63">
-        <f>J79-C79</f>
+        <f t="shared" si="14"/>
         <v>24.5</v>
       </c>
       <c r="N79" s="62">
-        <f>(G79+H79-I79+D79)*-1</f>
+        <f t="shared" si="15"/>
         <v>-6.5</v>
       </c>
       <c r="O79" s="64">
-        <f>100*N79/M79</f>
+        <f t="shared" si="16"/>
         <v>-26.530612244897959</v>
       </c>
       <c r="P79" s="62">
-        <f>-N79+L79</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="Q79" s="51" t="s">
@@ -6738,27 +6809,27 @@
         <v>34</v>
       </c>
       <c r="K80" s="63">
-        <f>E80-D80</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="L80" s="63">
-        <f>F80-D80</f>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="M80" s="63">
-        <f>J80-C80</f>
+        <f t="shared" si="14"/>
         <v>27.5</v>
       </c>
       <c r="N80" s="62">
-        <f>(G80+H80-I80+D80)*-1</f>
+        <f t="shared" si="15"/>
         <v>-5.8000000000000007</v>
       </c>
       <c r="O80" s="64">
-        <f>100*N80/M80</f>
+        <f t="shared" si="16"/>
         <v>-21.090909090909093</v>
       </c>
       <c r="P80" s="62">
-        <f>-N80+L80</f>
+        <f t="shared" si="17"/>
         <v>11.3</v>
       </c>
       <c r="Q80" s="51" t="s">
@@ -6806,27 +6877,27 @@
         <v>30</v>
       </c>
       <c r="K81" s="63">
-        <f>E81-D81</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="L81" s="63">
-        <f>F81-D81</f>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="M81" s="63">
-        <f>J81-C81</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N81" s="62">
-        <f>(G81+H81-I81+D81)*-1</f>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="O81" s="64">
-        <f>100*N81/M81</f>
+        <f t="shared" si="16"/>
         <v>-25</v>
       </c>
       <c r="P81" s="62">
-        <f>-N81+L81</f>
+        <f t="shared" si="17"/>
         <v>11.5</v>
       </c>
       <c r="Q81" s="51" t="s">
@@ -6874,27 +6945,27 @@
         <v>29</v>
       </c>
       <c r="K82" s="63">
-        <f>E82-D82</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="L82" s="63">
-        <f>F82-D82</f>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="M82" s="63">
-        <f>J82-C82</f>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="N82" s="62">
-        <f>(G82+H82-I82+D82)*-1</f>
+        <f t="shared" si="15"/>
         <v>-4.8000000000000007</v>
       </c>
       <c r="O82" s="64">
-        <f>100*N82/M82</f>
+        <f t="shared" si="16"/>
         <v>-19.200000000000003</v>
       </c>
       <c r="P82" s="62">
-        <f>-N82+L82</f>
+        <f t="shared" si="17"/>
         <v>10.3</v>
       </c>
       <c r="Q82" s="51" t="s">
@@ -6942,27 +7013,27 @@
         <v>33.5</v>
       </c>
       <c r="K83" s="63">
-        <f>E83-D83</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="L83" s="63">
-        <f>F83-D83</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="M83" s="63">
-        <f>J83-C83</f>
+        <f t="shared" si="14"/>
         <v>18.5</v>
       </c>
       <c r="N83" s="62">
-        <f>(G83+H83-I83+D83)*-1</f>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="O83" s="64">
-        <f>100*N83/M83</f>
+        <f t="shared" si="16"/>
         <v>-21.621621621621621</v>
       </c>
       <c r="P83" s="62">
-        <f>-N83+L83</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="Q83" s="51" t="s">
@@ -7010,27 +7081,27 @@
         <v>24.5</v>
       </c>
       <c r="K84" s="63">
-        <f>E84-D84</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="L84" s="63">
-        <f>F84-D84</f>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="M84" s="63">
-        <f>J84-C84</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="N84" s="62">
-        <f>(G84+H84-I84+D84)*-1</f>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="O84" s="64">
-        <f>100*N84/M84</f>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="P84" s="62">
-        <f>-N84+L84</f>
+        <f t="shared" si="17"/>
         <v>10.5</v>
       </c>
       <c r="Q84" s="51" t="s">
@@ -7078,27 +7149,27 @@
         <v>26.5</v>
       </c>
       <c r="K85" s="63">
-        <f>E85-D85</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="L85" s="63">
-        <f>F85-D85</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="M85" s="63">
-        <f>J85-C85</f>
+        <f t="shared" si="14"/>
         <v>21.5</v>
       </c>
       <c r="N85" s="62">
-        <f>(G85+H85-I85+D85)*-1</f>
+        <f t="shared" si="15"/>
         <v>-4.5</v>
       </c>
       <c r="O85" s="64">
-        <f>100*N85/M85</f>
+        <f t="shared" si="16"/>
         <v>-20.930232558139537</v>
       </c>
       <c r="P85" s="62">
-        <f>-N85+L85</f>
+        <f t="shared" si="17"/>
         <v>8.5</v>
       </c>
       <c r="Q85" s="51" t="s">
@@ -7146,27 +7217,27 @@
         <v>26.5</v>
       </c>
       <c r="K86" s="63">
-        <f>E86-D86</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L86" s="63">
-        <f>F86-D86</f>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="M86" s="63">
-        <f>J86-C86</f>
+        <f t="shared" si="14"/>
         <v>21.5</v>
       </c>
       <c r="N86" s="62">
-        <f>(G86+H86-I86+D86)*-1</f>
+        <f t="shared" si="15"/>
         <v>-4.6999999999999993</v>
       </c>
       <c r="O86" s="64">
-        <f>100*N86/M86</f>
+        <f t="shared" si="16"/>
         <v>-21.860465116279066</v>
       </c>
       <c r="P86" s="62">
-        <f>-N86+L86</f>
+        <f t="shared" si="17"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="Q86" s="51" t="s">
@@ -7214,27 +7285,27 @@
         <v>32.5</v>
       </c>
       <c r="K87" s="63">
-        <f>E87-D87</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="L87" s="63">
-        <f>F87-D87</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="M87" s="63">
-        <f>J87-C87</f>
+        <f t="shared" si="14"/>
         <v>20.5</v>
       </c>
       <c r="N87" s="62">
-        <f>(G87+H87-I87+D87)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2.4000000000000004</v>
       </c>
       <c r="O87" s="64">
-        <f>100*N87/M87</f>
+        <f t="shared" si="16"/>
         <v>-11.707317073170733</v>
       </c>
       <c r="P87" s="62">
-        <f>-N87+L87</f>
+        <f t="shared" si="17"/>
         <v>7.4</v>
       </c>
       <c r="Q87" s="51" t="s">
@@ -7282,27 +7353,27 @@
         <v>27</v>
       </c>
       <c r="K88" s="63">
-        <f>E88-D88</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="L88" s="63">
-        <f>F88-D88</f>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="M88" s="63">
-        <f>J88-C88</f>
+        <f t="shared" si="14"/>
         <v>20.5</v>
       </c>
       <c r="N88" s="62">
-        <f>(G88+H88-I88+D88)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="O88" s="64">
-        <f>100*N88/M88</f>
+        <f t="shared" si="16"/>
         <v>-9.7560975609756095</v>
       </c>
       <c r="P88" s="62">
-        <f>-N88+L88</f>
+        <f t="shared" si="17"/>
         <v>6.5</v>
       </c>
       <c r="Q88" s="51" t="s">
@@ -7350,27 +7421,27 @@
         <v>25</v>
       </c>
       <c r="K89" s="63">
-        <f>E89-D89</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="L89" s="63">
-        <f>F89-D89</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="M89" s="63">
-        <f>J89-C89</f>
+        <f t="shared" si="14"/>
         <v>18.5</v>
       </c>
       <c r="N89" s="62">
-        <f>(G89+H89-I89+D89)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="O89" s="64">
-        <f>100*N89/M89</f>
+        <f t="shared" si="16"/>
         <v>-10.810810810810811</v>
       </c>
       <c r="P89" s="62">
-        <f>-N89+L89</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q89" s="51" t="s">
@@ -7418,27 +7489,27 @@
         <v>23.5</v>
       </c>
       <c r="K90" s="63">
-        <f>E90-D90</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L90" s="63">
-        <f>F90-D90</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="M90" s="63">
-        <f>J90-C90</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="N90" s="62">
-        <f>(G90+H90-I90+D90)*-1</f>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="O90" s="64">
-        <f>100*N90/M90</f>
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
       <c r="P90" s="62">
-        <f>-N90+L90</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q90" s="51" t="s">
@@ -7486,27 +7557,27 @@
         <v>25.5</v>
       </c>
       <c r="K91" s="63">
-        <f>E91-D91</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="L91" s="63">
-        <f>F91-D91</f>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="M91" s="63">
-        <f>J91-C91</f>
+        <f t="shared" si="14"/>
         <v>17.5</v>
       </c>
       <c r="N91" s="62">
-        <f>(G91+H91-I91+D91)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="O91" s="64">
-        <f>100*N91/M91</f>
+        <f t="shared" si="16"/>
         <v>-11.428571428571429</v>
       </c>
       <c r="P91" s="62">
-        <f>-N91+L91</f>
+        <f t="shared" si="17"/>
         <v>7.5</v>
       </c>
       <c r="Q91" s="51" t="s">
@@ -7554,27 +7625,27 @@
         <v>22</v>
       </c>
       <c r="K92" s="63">
-        <f>E92-D92</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="L92" s="63">
-        <f>F92-D92</f>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="M92" s="63">
-        <f>J92-C92</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="N92" s="62">
-        <f>(G92+H92-I92+D92)*-1</f>
+        <f t="shared" si="15"/>
         <v>-1.5</v>
       </c>
       <c r="O92" s="64">
-        <f>100*N92/M92</f>
+        <f t="shared" si="16"/>
         <v>-8.8235294117647065</v>
       </c>
       <c r="P92" s="62">
-        <f>-N92+L92</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q92" s="51" t="s">
@@ -7622,27 +7693,27 @@
         <v>20.5</v>
       </c>
       <c r="K93" s="63">
-        <f>E93-D93</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L93" s="63">
-        <f>F93-D93</f>
+        <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
       <c r="M93" s="63">
-        <f>J93-C93</f>
+        <f t="shared" si="14"/>
         <v>15.5</v>
       </c>
       <c r="N93" s="62">
-        <f>(G93+H93-I93+D93)*-1</f>
+        <f t="shared" si="15"/>
         <v>-1.5</v>
       </c>
       <c r="O93" s="64">
-        <f>100*N93/M93</f>
+        <f t="shared" si="16"/>
         <v>-9.67741935483871</v>
       </c>
       <c r="P93" s="62">
-        <f>-N93+L93</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q93" s="51" t="s">
@@ -7690,27 +7761,27 @@
         <v>20</v>
       </c>
       <c r="K94" s="63">
-        <f>E94-D94</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L94" s="63">
-        <f>F94-D94</f>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="M94" s="63">
-        <f>J94-C94</f>
+        <f t="shared" si="14"/>
         <v>15.5</v>
       </c>
       <c r="N94" s="62">
-        <f>(G94+H94-I94+D94)*-1</f>
+        <f t="shared" si="15"/>
         <v>-1.5</v>
       </c>
       <c r="O94" s="64">
-        <f>100*N94/M94</f>
+        <f t="shared" si="16"/>
         <v>-9.67741935483871</v>
       </c>
       <c r="P94" s="62">
-        <f>-N94+L94</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="Q94" s="51" t="s">
@@ -7758,27 +7829,27 @@
         <v>38.5</v>
       </c>
       <c r="K95" s="63">
-        <f>E95-D95</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="L95" s="63">
-        <f>F95-D95</f>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="M95" s="63">
-        <f>J95-C95</f>
+        <f t="shared" si="14"/>
         <v>22.5</v>
       </c>
       <c r="N95" s="62">
-        <f>(G95+H95-I95+D95)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2.9000000000000004</v>
       </c>
       <c r="O95" s="64">
-        <f>100*N95/M95</f>
+        <f t="shared" si="16"/>
         <v>-12.888888888888891</v>
       </c>
       <c r="P95" s="62">
-        <f>-N95+L95</f>
+        <f t="shared" si="17"/>
         <v>9.4</v>
       </c>
       <c r="Q95" s="51" t="s">
@@ -7826,27 +7897,27 @@
         <v>40</v>
       </c>
       <c r="K96" s="63">
-        <f>E96-D96</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="L96" s="63">
-        <f>F96-D96</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="M96" s="63">
-        <f>J96-C96</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="N96" s="62">
-        <f>(G96+H96-I96+D96)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2.3000000000000007</v>
       </c>
       <c r="O96" s="64">
-        <f>100*N96/M96</f>
+        <f t="shared" si="16"/>
         <v>-7.9310344827586228</v>
       </c>
       <c r="P96" s="62">
-        <f>-N96+L96</f>
+        <f t="shared" si="17"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="Q96" s="51" t="s">
@@ -7894,27 +7965,27 @@
         <v>27</v>
       </c>
       <c r="K97" s="63">
-        <f>E97-D97</f>
+        <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
       <c r="L97" s="63">
-        <f>F97-D97</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="M97" s="63">
-        <f>J97-C97</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="N97" s="62">
-        <f>(G97+H97-I97+D97)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="O97" s="64">
-        <f>100*N97/M97</f>
+        <f t="shared" si="16"/>
         <v>-9.5238095238095237</v>
       </c>
       <c r="P97" s="62">
-        <f>-N97+L97</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q97" s="51" t="s">
@@ -7962,27 +8033,27 @@
         <v>25.5</v>
       </c>
       <c r="K98" s="63">
-        <f>E98-D98</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="L98" s="63">
-        <f>F98-D98</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="M98" s="63">
-        <f>J98-C98</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="N98" s="62">
-        <f>(G98+H98-I98+D98)*-1</f>
+        <f t="shared" si="15"/>
         <v>-2.5</v>
       </c>
       <c r="O98" s="64">
-        <f>100*N98/M98</f>
+        <f t="shared" si="16"/>
         <v>-11.904761904761905</v>
       </c>
       <c r="P98" s="62">
-        <f>-N98+L98</f>
+        <f t="shared" si="17"/>
         <v>7.5</v>
       </c>
       <c r="Q98" s="51" t="s">
@@ -8030,27 +8101,27 @@
         <v>35.5</v>
       </c>
       <c r="K99" s="63">
-        <f>E99-D99</f>
+        <f t="shared" ref="K99:K130" si="18">E99-D99</f>
         <v>13</v>
       </c>
       <c r="L99" s="63">
-        <f>F99-D99</f>
+        <f t="shared" ref="L99:L130" si="19">F99-D99</f>
         <v>7.5</v>
       </c>
       <c r="M99" s="63">
-        <f>J99-C99</f>
+        <f t="shared" ref="M99:M130" si="20">J99-C99</f>
         <v>26</v>
       </c>
       <c r="N99" s="62">
-        <f>(G99+H99-I99+D99)*-1</f>
+        <f t="shared" ref="N99:N130" si="21">(G99+H99-I99+D99)*-1</f>
         <v>1.0999999999999996</v>
       </c>
       <c r="O99" s="64">
-        <f>100*N99/M99</f>
+        <f t="shared" ref="O99:O130" si="22">100*N99/M99</f>
         <v>4.2307692307692299</v>
       </c>
       <c r="P99" s="62">
-        <f>-N99+L99</f>
+        <f t="shared" ref="P99:P130" si="23">-N99+L99</f>
         <v>6.4</v>
       </c>
       <c r="Q99" s="51" t="s">
@@ -8098,27 +8169,27 @@
         <v>35.5</v>
       </c>
       <c r="K100" s="63">
-        <f>E100-D100</f>
+        <f t="shared" si="18"/>
         <v>10.5</v>
       </c>
       <c r="L100" s="63">
-        <f>F100-D100</f>
+        <f t="shared" si="19"/>
         <v>6.5</v>
       </c>
       <c r="M100" s="63">
-        <f>J100-C100</f>
+        <f t="shared" si="20"/>
         <v>29.5</v>
       </c>
       <c r="N100" s="62">
-        <f>(G100+H100-I100+D100)*-1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O100" s="64">
-        <f>100*N100/M100</f>
+        <f t="shared" si="22"/>
         <v>3.3898305084745761</v>
       </c>
       <c r="P100" s="62">
-        <f>-N100+L100</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q100" s="51" t="s">
@@ -8166,27 +8237,27 @@
         <v>31</v>
       </c>
       <c r="K101" s="63">
-        <f>E101-D101</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="L101" s="63">
-        <f>F101-D101</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M101" s="63">
-        <f>J101-C101</f>
+        <f t="shared" si="20"/>
         <v>26.5</v>
       </c>
       <c r="N101" s="62">
-        <f>(G101+H101-I101+D101)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O101" s="64">
-        <f>100*N101/M101</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P101" s="62">
-        <f>-N101+L101</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="Q101" s="51" t="s">
@@ -8234,27 +8305,27 @@
         <v>30</v>
       </c>
       <c r="K102" s="63">
-        <f>E102-D102</f>
+        <f t="shared" si="18"/>
         <v>8.5</v>
       </c>
       <c r="L102" s="63">
-        <f>F102-D102</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M102" s="63">
-        <f>J102-C102</f>
+        <f t="shared" si="20"/>
         <v>25.5</v>
       </c>
       <c r="N102" s="62">
-        <f>(G102+H102-I102+D102)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O102" s="64">
-        <f>100*N102/M102</f>
+        <f t="shared" si="22"/>
         <v>1.9607843137254901</v>
       </c>
       <c r="P102" s="62">
-        <f>-N102+L102</f>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="Q102" s="51" t="s">
@@ -8302,27 +8373,27 @@
         <v>48.5</v>
       </c>
       <c r="K103" s="63">
-        <f>E103-D103</f>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="L103" s="63">
-        <f>F103-D103</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="M103" s="63">
-        <f>J103-C103</f>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="N103" s="62">
-        <f>(G103+H103-I103+D103)*-1</f>
+        <f t="shared" si="21"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="O103" s="64">
-        <f>100*N103/M103</f>
+        <f t="shared" si="22"/>
         <v>4.7999999999999972</v>
       </c>
       <c r="P103" s="62">
-        <f>-N103+L103</f>
+        <f t="shared" si="23"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="Q103" s="51" t="s">
@@ -8370,27 +8441,27 @@
         <v>30.5</v>
       </c>
       <c r="K104" s="63">
-        <f>E104-D104</f>
+        <f t="shared" si="18"/>
         <v>8.5</v>
       </c>
       <c r="L104" s="63">
-        <f>F104-D104</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="M104" s="63">
-        <f>J104-C104</f>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="N104" s="62">
-        <f>(G104+H104-I104+D104)*-1</f>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="O104" s="64">
-        <f>100*N104/M104</f>
+        <f t="shared" si="22"/>
         <v>6.5217391304347823</v>
       </c>
       <c r="P104" s="62">
-        <f>-N104+L104</f>
+        <f t="shared" si="23"/>
         <v>6.5</v>
       </c>
       <c r="Q104" s="51" t="s">
@@ -8438,27 +8509,27 @@
         <v>29.5</v>
       </c>
       <c r="K105" s="63">
-        <f>E105-D105</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L105" s="63">
-        <f>F105-D105</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M105" s="63">
-        <f>J105-C105</f>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="N105" s="62">
-        <f>(G105+H105-I105+D105)*-1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O105" s="64">
-        <f>100*N105/M105</f>
+        <f t="shared" si="22"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="P105" s="62">
-        <f>-N105+L105</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="Q105" s="51" t="s">
@@ -8506,27 +8577,27 @@
         <v>24.5</v>
       </c>
       <c r="K106" s="63">
-        <f>E106-D106</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L106" s="63">
-        <f>F106-D106</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M106" s="63">
-        <f>J106-C106</f>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="N106" s="62">
-        <f>(G106+H106-I106+D106)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O106" s="64">
-        <f>100*N106/M106</f>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="P106" s="62">
-        <f>-N106+L106</f>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="Q106" s="51" t="s">
@@ -8574,27 +8645,27 @@
         <v>38</v>
       </c>
       <c r="K107" s="63">
-        <f>E107-D107</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L107" s="63">
-        <f>F107-D107</f>
+        <f t="shared" si="19"/>
         <v>6.5</v>
       </c>
       <c r="M107" s="63">
-        <f>J107-C107</f>
+        <f t="shared" si="20"/>
         <v>25.5</v>
       </c>
       <c r="N107" s="62">
-        <f>(G107+H107-I107+D107)*-1</f>
+        <f t="shared" si="21"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="O107" s="64">
-        <f>100*N107/M107</f>
+        <f t="shared" si="22"/>
         <v>4.705882352941174</v>
       </c>
       <c r="P107" s="62">
-        <f>-N107+L107</f>
+        <f t="shared" si="23"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="Q107" s="51" t="s">
@@ -8642,27 +8713,27 @@
         <v>30</v>
       </c>
       <c r="K108" s="63">
-        <f>E108-D108</f>
+        <f t="shared" si="18"/>
         <v>7.5</v>
       </c>
       <c r="L108" s="63">
-        <f>F108-D108</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="M108" s="63">
-        <f>J108-C108</f>
+        <f t="shared" si="20"/>
         <v>24.5</v>
       </c>
       <c r="N108" s="62">
-        <f>(G108+H108-I108+D108)*-1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O108" s="64">
-        <f>100*N108/M108</f>
+        <f t="shared" si="22"/>
         <v>4.0816326530612246</v>
       </c>
       <c r="P108" s="62">
-        <f>-N108+L108</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="Q108" s="51" t="s">
@@ -8710,27 +8781,27 @@
         <v>28.5</v>
       </c>
       <c r="K109" s="63">
-        <f>E109-D109</f>
+        <f t="shared" si="18"/>
         <v>7.5</v>
       </c>
       <c r="L109" s="63">
-        <f>F109-D109</f>
+        <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
       <c r="M109" s="63">
-        <f>J109-C109</f>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="N109" s="62">
-        <f>(G109+H109-I109+D109)*-1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O109" s="64">
-        <f>100*N109/M109</f>
+        <f t="shared" si="22"/>
         <v>4.5454545454545459</v>
       </c>
       <c r="P109" s="62">
-        <f>-N109+L109</f>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="Q109" s="51" t="s">
@@ -8778,27 +8849,27 @@
         <v>24.5</v>
       </c>
       <c r="K110" s="63">
-        <f>E110-D110</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L110" s="63">
-        <f>F110-D110</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M110" s="63">
-        <f>J110-C110</f>
+        <f t="shared" si="20"/>
         <v>21.5</v>
       </c>
       <c r="N110" s="62">
-        <f>(G110+H110-I110+D110)*-1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O110" s="64">
-        <f>100*N110/M110</f>
+        <f t="shared" si="22"/>
         <v>4.6511627906976747</v>
       </c>
       <c r="P110" s="62">
-        <f>-N110+L110</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="Q110" s="51" t="s">
@@ -8846,27 +8917,27 @@
         <v>25.5</v>
       </c>
       <c r="K111" s="63">
-        <f>E111-D111</f>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="L111" s="63">
-        <f>F111-D111</f>
+        <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
       <c r="M111" s="63">
-        <f>J111-C111</f>
+        <f t="shared" si="20"/>
         <v>13.5</v>
       </c>
       <c r="N111" s="62">
-        <f>(G111+H111-I111+D111)*-1</f>
+        <f t="shared" si="21"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="O111" s="64">
-        <f>100*N111/M111</f>
+        <f t="shared" si="22"/>
         <v>-4.444444444444442</v>
       </c>
       <c r="P111" s="62">
-        <f>-N111+L111</f>
+        <f t="shared" si="23"/>
         <v>8.1</v>
       </c>
       <c r="Q111" s="51" t="s">
@@ -8914,27 +8985,27 @@
         <v>28</v>
       </c>
       <c r="K112" s="63">
-        <f>E112-D112</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="L112" s="63">
-        <f>F112-D112</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="M112" s="63">
-        <f>J112-C112</f>
+        <f t="shared" si="20"/>
         <v>18.5</v>
       </c>
       <c r="N112" s="62">
-        <f>(G112+H112-I112+D112)*-1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O112" s="64">
-        <f>100*N112/M112</f>
+        <f t="shared" si="22"/>
         <v>5.4054054054054053</v>
       </c>
       <c r="P112" s="62">
-        <f>-N112+L112</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="Q112" s="51" t="s">
@@ -8982,27 +9053,27 @@
         <v>24.5</v>
       </c>
       <c r="K113" s="63">
-        <f>E113-D113</f>
+        <f t="shared" si="18"/>
         <v>8.5</v>
       </c>
       <c r="L113" s="63">
-        <f>F113-D113</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M113" s="63">
-        <f>J113-C113</f>
+        <f t="shared" si="20"/>
         <v>17.5</v>
       </c>
       <c r="N113" s="62">
-        <f>(G113+H113-I113+D113)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O113" s="64">
-        <f>100*N113/M113</f>
+        <f t="shared" si="22"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="P113" s="62">
-        <f>-N113+L113</f>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="Q113" s="51" t="s">
@@ -9050,27 +9121,27 @@
         <v>19</v>
       </c>
       <c r="K114" s="63">
-        <f>E114-D114</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="L114" s="63">
-        <f>F114-D114</f>
+        <f t="shared" si="19"/>
         <v>3.5</v>
       </c>
       <c r="M114" s="63">
-        <f>J114-C114</f>
+        <f t="shared" si="20"/>
         <v>14.5</v>
       </c>
       <c r="N114" s="62">
-        <f>(G114+H114-I114+D114)*-1</f>
+        <f t="shared" si="21"/>
         <v>-0.5</v>
       </c>
       <c r="O114" s="64">
-        <f>100*N114/M114</f>
+        <f t="shared" si="22"/>
         <v>-3.4482758620689653</v>
       </c>
       <c r="P114" s="62">
-        <f>-N114+L114</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="Q114" s="51" t="s">
@@ -9118,27 +9189,27 @@
         <v>29.5</v>
       </c>
       <c r="K115" s="63">
-        <f>E115-D115</f>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="L115" s="63">
-        <f>F115-D115</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="M115" s="63">
-        <f>J115-C115</f>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="N115" s="62">
-        <f>(G115+H115-I115+D115)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O115" s="64">
-        <f>100*N115/M115</f>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="P115" s="62">
-        <f>-N115+L115</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q115" s="51" t="s">
@@ -9186,27 +9257,27 @@
         <v>28.5</v>
       </c>
       <c r="K116" s="63">
-        <f>E116-D116</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="L116" s="63">
-        <f>F116-D116</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="M116" s="63">
-        <f>J116-C116</f>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="N116" s="62">
-        <f>(G116+H116-I116+D116)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O116" s="64">
-        <f>100*N116/M116</f>
+        <f t="shared" si="22"/>
         <v>2.3809523809523809</v>
       </c>
       <c r="P116" s="62">
-        <f>-N116+L116</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q116" s="51" t="s">
@@ -9254,27 +9325,27 @@
         <v>25.5</v>
       </c>
       <c r="K117" s="63">
-        <f>E117-D117</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L117" s="63">
-        <f>F117-D117</f>
+        <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
       <c r="M117" s="63">
-        <f>J117-C117</f>
+        <f t="shared" si="20"/>
         <v>17.5</v>
       </c>
       <c r="N117" s="62">
-        <f>(G117+H117-I117+D117)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O117" s="64">
-        <f>100*N117/M117</f>
+        <f t="shared" si="22"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="P117" s="62">
-        <f>-N117+L117</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="Q117" s="51" t="s">
@@ -9322,27 +9393,27 @@
         <v>26</v>
       </c>
       <c r="K118" s="63">
-        <f>E118-D118</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L118" s="63">
-        <f>F118-D118</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M118" s="63">
-        <f>J118-C118</f>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="N118" s="62">
-        <f>(G118+H118-I118+D118)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O118" s="64">
-        <f>100*N118/M118</f>
+        <f t="shared" si="22"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="P118" s="62">
-        <f>-N118+L118</f>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="Q118" s="51" t="s">
@@ -9390,27 +9461,27 @@
         <v>40.5</v>
       </c>
       <c r="K119" s="63">
-        <f>E119-D119</f>
+        <f t="shared" si="18"/>
         <v>9.5</v>
       </c>
       <c r="L119" s="63">
-        <f>F119-D119</f>
+        <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
       <c r="M119" s="63">
-        <f>J119-C119</f>
+        <f t="shared" si="20"/>
         <v>18.5</v>
       </c>
       <c r="N119" s="62">
-        <f>(G119+H119-I119+D119)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O119" s="64">
-        <f>100*N119/M119</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P119" s="62">
-        <f>-N119+L119</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q119" s="51" t="s">
@@ -9458,27 +9529,27 @@
         <v>24.5</v>
       </c>
       <c r="K120" s="63">
-        <f>E120-D120</f>
+        <f t="shared" si="18"/>
         <v>8.5</v>
       </c>
       <c r="L120" s="63">
-        <f>F120-D120</f>
+        <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
       <c r="M120" s="63">
-        <f>J120-C120</f>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="N120" s="62">
-        <f>(G120+H120-I120+D120)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O120" s="64">
-        <f>100*N120/M120</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P120" s="62">
-        <f>-N120+L120</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q120" s="51" t="s">
@@ -9526,27 +9597,27 @@
         <v>22</v>
       </c>
       <c r="K121" s="63">
-        <f>E121-D121</f>
+        <f t="shared" si="18"/>
         <v>7.5</v>
       </c>
       <c r="L121" s="63">
-        <f>F121-D121</f>
+        <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
       <c r="M121" s="63">
-        <f>J121-C121</f>
+        <f t="shared" si="20"/>
         <v>15.5</v>
       </c>
       <c r="N121" s="62">
-        <f>(G121+H121-I121+D121)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O121" s="64">
-        <f>100*N121/M121</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P121" s="62">
-        <f>-N121+L121</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q121" s="51" t="s">
@@ -9594,27 +9665,27 @@
         <v>20</v>
       </c>
       <c r="K122" s="63">
-        <f>E122-D122</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="L122" s="63">
-        <f>F122-D122</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M122" s="63">
-        <f>J122-C122</f>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="N122" s="62">
-        <f>(G122+H122-I122+D122)*-1</f>
+        <f t="shared" si="21"/>
         <v>-0.5</v>
       </c>
       <c r="O122" s="64">
-        <f>100*N122/M122</f>
+        <f t="shared" si="22"/>
         <v>-3.8461538461538463</v>
       </c>
       <c r="P122" s="62">
-        <f>-N122+L122</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="Q122" s="51" t="s">
@@ -9662,27 +9733,27 @@
         <v>33</v>
       </c>
       <c r="K123" s="63">
-        <f>E123-D123</f>
+        <f t="shared" si="18"/>
         <v>14.5</v>
       </c>
       <c r="L123" s="63">
-        <f>F123-D123</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="M123" s="63">
-        <f>J123-C123</f>
+        <f t="shared" si="20"/>
         <v>21.5</v>
       </c>
       <c r="N123" s="62">
-        <f>(G123+H123-I123+D123)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="O123" s="64">
-        <f>100*N123/M123</f>
+        <f t="shared" si="22"/>
         <v>2.7906976744186029</v>
       </c>
       <c r="P123" s="62">
-        <f>-N123+L123</f>
+        <f t="shared" si="23"/>
         <v>7.4</v>
       </c>
       <c r="Q123" s="51" t="s">
@@ -9730,27 +9801,27 @@
         <v>31</v>
       </c>
       <c r="K124" s="63">
-        <f>E124-D124</f>
+        <f t="shared" si="18"/>
         <v>12.5</v>
       </c>
       <c r="L124" s="63">
-        <f>F124-D124</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="M124" s="63">
-        <f>J124-C124</f>
+        <f t="shared" si="20"/>
         <v>25.5</v>
       </c>
       <c r="N124" s="62">
-        <f>(G124+H124-I124+D124)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O124" s="64">
-        <f>100*N124/M124</f>
+        <f t="shared" si="22"/>
         <v>1.9607843137254901</v>
       </c>
       <c r="P124" s="62">
-        <f>-N124+L124</f>
+        <f t="shared" si="23"/>
         <v>7.5</v>
       </c>
       <c r="Q124" s="51" t="s">
@@ -9798,27 +9869,27 @@
         <v>25</v>
       </c>
       <c r="K125" s="63">
-        <f>E125-D125</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L125" s="63">
-        <f>F125-D125</f>
+        <f t="shared" si="19"/>
         <v>6.5</v>
       </c>
       <c r="M125" s="63">
-        <f>J125-C125</f>
+        <f t="shared" si="20"/>
         <v>18.5</v>
       </c>
       <c r="N125" s="62">
-        <f>(G125+H125-I125+D125)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O125" s="64">
-        <f>100*N125/M125</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P125" s="62">
-        <f>-N125+L125</f>
+        <f t="shared" si="23"/>
         <v>6.5</v>
       </c>
       <c r="Q125" s="51" t="s">
@@ -9866,27 +9937,27 @@
         <v>21.5</v>
       </c>
       <c r="K126" s="63">
-        <f>E126-D126</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="L126" s="63">
-        <f>F126-D126</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="M126" s="63">
-        <f>J126-C126</f>
+        <f t="shared" si="20"/>
         <v>15.5</v>
       </c>
       <c r="N126" s="62">
-        <f>(G126+H126-I126+D126)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O126" s="64">
-        <f>100*N126/M126</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P126" s="62">
-        <f>-N126+L126</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="Q126" s="51" t="s">
@@ -9934,27 +10005,27 @@
         <v>31</v>
       </c>
       <c r="K127" s="63">
-        <f>E127-D127</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L127" s="63">
-        <f>F127-D127</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="M127" s="63">
-        <f>J127-C127</f>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="N127" s="62">
-        <f>(G127+H127-I127+D127)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O127" s="64">
-        <f>100*N127/M127</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P127" s="62">
-        <f>-N127+L127</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="Q127" s="51" t="s">
@@ -10002,27 +10073,27 @@
         <v>25.5</v>
       </c>
       <c r="K128" s="63">
-        <f>E128-D128</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L128" s="63">
-        <f>F128-D128</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="M128" s="63">
-        <f>J128-C128</f>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="N128" s="62">
-        <f>(G128+H128-I128+D128)*-1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O128" s="64">
-        <f>100*N128/M128</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P128" s="62">
-        <f>-N128+L128</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="Q128" s="51" t="s">
@@ -10070,27 +10141,27 @@
         <v>24</v>
       </c>
       <c r="K129" s="63">
-        <f>E129-D129</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L129" s="63">
-        <f>F129-D129</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="M129" s="63">
-        <f>J129-C129</f>
+        <f t="shared" si="20"/>
         <v>20.5</v>
       </c>
       <c r="N129" s="62">
-        <f>(G129+H129-I129+D129)*-1</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="O129" s="64">
-        <f>100*N129/M129</f>
+        <f t="shared" si="22"/>
         <v>2.4390243902439024</v>
       </c>
       <c r="P129" s="62">
-        <f>-N129+L129</f>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="Q129" s="51" t="s">
@@ -10138,27 +10209,27 @@
         <v>26</v>
       </c>
       <c r="K130" s="63">
-        <f>E130-D130</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="L130" s="63">
-        <f>F130-D130</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="M130" s="63">
-        <f>J130-C130</f>
+        <f t="shared" si="20"/>
         <v>21.5</v>
       </c>
       <c r="N130" s="62">
-        <f>(G130+H130-I130+D130)*-1</f>
+        <f t="shared" si="21"/>
         <v>-0.5</v>
       </c>
       <c r="O130" s="74">
-        <f>100*N130/M130</f>
+        <f t="shared" si="22"/>
         <v>-2.3255813953488373</v>
       </c>
       <c r="P130" s="62">
-        <f>-N130+L130</f>
+        <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
       <c r="Q130" s="51" t="s">
@@ -10187,7 +10258,7 @@
       <c r="D131" s="69">
         <v>-3.5</v>
       </c>
-      <c r="E131" s="69">
+      <c r="E131" s="73">
         <v>5.5</v>
       </c>
       <c r="F131" s="73">
@@ -10206,27 +10277,27 @@
         <v>38.5</v>
       </c>
       <c r="K131" s="69">
-        <f>E131-D131</f>
+        <f t="shared" ref="K131:K154" si="24">E131-D131</f>
         <v>9</v>
       </c>
       <c r="L131" s="69">
-        <f>F131-D131</f>
+        <f t="shared" ref="L131:L154" si="25">F131-D131</f>
         <v>3</v>
       </c>
       <c r="M131" s="69">
-        <f>J131-C131</f>
+        <f t="shared" ref="M131:M154" si="26">J131-C131</f>
         <v>27</v>
       </c>
       <c r="N131" s="69">
-        <f>(G131+H131-I131+D131)*-1</f>
+        <f t="shared" ref="N131:N154" si="27">(G131+H131-I131+D131)*-1</f>
         <v>2</v>
       </c>
       <c r="O131" s="70">
-        <f>100*N131/M131</f>
+        <f t="shared" ref="O131:O162" si="28">100*N131/M131</f>
         <v>7.4074074074074074</v>
       </c>
       <c r="P131" s="69">
-        <f>-N131+L131</f>
+        <f t="shared" ref="P131:P154" si="29">-N131+L131</f>
         <v>1</v>
       </c>
       <c r="Q131" s="67" t="s">
@@ -10274,27 +10345,27 @@
         <v>28.5</v>
       </c>
       <c r="K132" s="69">
-        <f>E132-D132</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="L132" s="69">
-        <f>F132-D132</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="M132" s="69">
-        <f>J132-C132</f>
+        <f t="shared" si="26"/>
         <v>23.5</v>
       </c>
       <c r="N132" s="69">
-        <f>(G132+H132-I132+D132)*-1</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O132" s="70">
-        <f>100*N132/M132</f>
+        <f t="shared" si="28"/>
         <v>4.2553191489361701</v>
       </c>
       <c r="P132" s="69">
-        <f>-N132+L132</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="Q132" s="67" t="s">
@@ -10342,27 +10413,27 @@
         <v>30.5</v>
       </c>
       <c r="K133" s="69">
-        <f>E133-D133</f>
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
       <c r="L133" s="69">
-        <f>F133-D133</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="M133" s="69">
-        <f>J133-C133</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="N133" s="69">
-        <f>(G133+H133-I133+D133)*-1</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O133" s="70">
-        <f>100*N133/M133</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="P133" s="69">
-        <f>-N133+L133</f>
+        <f t="shared" si="29"/>
         <v>3.5</v>
       </c>
       <c r="Q133" s="67" t="s">
@@ -10410,27 +10481,27 @@
         <v>29</v>
       </c>
       <c r="K134" s="69">
-        <f>E134-D134</f>
+        <f t="shared" si="24"/>
         <v>4.5</v>
       </c>
       <c r="L134" s="69">
-        <f>F134-D134</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="M134" s="69">
-        <f>J134-C134</f>
+        <f t="shared" si="26"/>
         <v>24.5</v>
       </c>
       <c r="N134" s="69">
-        <f>(G134+H134-I134+D134)*-1</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O134" s="70">
-        <f>100*N134/M134</f>
+        <f t="shared" si="28"/>
         <v>4.0816326530612246</v>
       </c>
       <c r="P134" s="69">
-        <f>-N134+L134</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Q134" s="67" t="s">
@@ -10478,27 +10549,27 @@
         <v>42</v>
       </c>
       <c r="K135" s="62">
-        <f>E135-D135</f>
+        <f t="shared" si="24"/>
         <v>8.5</v>
       </c>
       <c r="L135" s="62">
-        <f>F135-D135</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="M135" s="62">
-        <f>J135-C135</f>
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
       <c r="N135" s="62">
-        <f>(G135+H135-I135+D135)*-1</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="O135" s="64">
-        <f>100*N135/M135</f>
+        <f t="shared" si="28"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="P135" s="62">
-        <f>-N135+L135</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="Q135" s="57" t="s">
@@ -10546,27 +10617,27 @@
         <v>33</v>
       </c>
       <c r="K136" s="62">
-        <f>E136-D136</f>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="L136" s="62">
-        <f>F136-D136</f>
+        <f t="shared" si="25"/>
         <v>5.5</v>
       </c>
       <c r="M136" s="62">
-        <f>J136-C136</f>
+        <f t="shared" si="26"/>
         <v>26.5</v>
       </c>
       <c r="N136" s="62">
-        <f>(G136+H136-I136+D136)*-1</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="O136" s="64">
-        <f>100*N136/M136</f>
+        <f t="shared" si="28"/>
         <v>7.5471698113207548</v>
       </c>
       <c r="P136" s="62">
-        <f>-N136+L136</f>
+        <f t="shared" si="29"/>
         <v>3.5</v>
       </c>
       <c r="Q136" s="57" t="s">
@@ -10614,27 +10685,27 @@
         <v>31</v>
       </c>
       <c r="K137" s="62">
-        <f>E137-D137</f>
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
       <c r="L137" s="62">
-        <f>F137-D137</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="M137" s="62">
-        <f>J137-C137</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="N137" s="62">
-        <f>(G137+H137-I137+D137)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="O137" s="64">
-        <f>100*N137/M137</f>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="P137" s="62">
-        <f>-N137+L137</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="Q137" s="57" t="s">
@@ -10682,27 +10753,27 @@
         <v>32</v>
       </c>
       <c r="K138" s="62">
-        <f>E138-D138</f>
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
       <c r="L138" s="62">
-        <f>F138-D138</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="M138" s="62">
-        <f>J138-C138</f>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="N138" s="62">
-        <f>(G138+H138-I138+D138)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="O138" s="64">
-        <f>100*N138/M138</f>
+        <f t="shared" si="28"/>
         <v>1.8518518518518519</v>
       </c>
       <c r="P138" s="62">
-        <f>-N138+L138</f>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="Q138" s="57" t="s">
@@ -10750,27 +10821,27 @@
         <v>28</v>
       </c>
       <c r="K139" s="63">
-        <f>E139-D139</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="L139" s="63">
-        <f>F139-D139</f>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="M139" s="63">
-        <f>J139-C139</f>
+        <f t="shared" si="26"/>
         <v>18.5</v>
       </c>
       <c r="N139" s="62">
-        <f>(G139+H139-I139+D139)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="O139" s="64">
-        <f>100*N139/M139</f>
+        <f t="shared" si="28"/>
         <v>2.7027027027027026</v>
       </c>
       <c r="P139" s="62">
-        <f>-N139+L139</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Q139" s="51" t="s">
@@ -10818,27 +10889,27 @@
         <v>26</v>
       </c>
       <c r="K140" s="63">
-        <f>E140-D140</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="L140" s="63">
-        <f>F140-D140</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="M140" s="63">
-        <f>J140-C140</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="N140" s="62">
-        <f>(G140+H140-I140+D140)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="O140" s="64">
-        <f>100*N140/M140</f>
+        <f t="shared" si="28"/>
         <v>2.3809523809523809</v>
       </c>
       <c r="P140" s="62">
-        <f>-N140+L140</f>
+        <f t="shared" si="29"/>
         <v>5.5</v>
       </c>
       <c r="Q140" s="51" t="s">
@@ -10886,27 +10957,27 @@
         <v>23</v>
       </c>
       <c r="K141" s="63">
-        <f>E141-D141</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="L141" s="63">
-        <f>F141-D141</f>
+        <f t="shared" si="25"/>
         <v>5.5</v>
       </c>
       <c r="M141" s="63">
-        <f>J141-C141</f>
+        <f t="shared" si="26"/>
         <v>17.5</v>
       </c>
       <c r="N141" s="62">
-        <f>(G141+H141-I141+D141)*-1</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O141" s="64">
-        <f>100*N141/M141</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P141" s="62">
-        <f>-N141+L141</f>
+        <f t="shared" si="29"/>
         <v>5.5</v>
       </c>
       <c r="Q141" s="51" t="s">
@@ -10954,27 +11025,27 @@
         <v>23</v>
       </c>
       <c r="K142" s="63">
-        <f>E142-D142</f>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="L142" s="63">
-        <f>F142-D142</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="M142" s="63">
-        <f>J142-C142</f>
+        <f t="shared" si="26"/>
         <v>18.5</v>
       </c>
       <c r="N142" s="62">
-        <f>(G142+H142-I142+D142)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="O142" s="64">
-        <f>100*N142/M142</f>
+        <f t="shared" si="28"/>
         <v>2.7027027027027026</v>
       </c>
       <c r="P142" s="62">
-        <f>-N142+L142</f>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="Q142" s="51" t="s">
@@ -11022,27 +11093,27 @@
         <v>41</v>
       </c>
       <c r="K143" s="63">
-        <f>E143-D143</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="L143" s="63">
-        <f>F143-D143</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="M143" s="63">
-        <f>J143-C143</f>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="N143" s="62">
-        <f>(G143+H143-I143+D143)*-1</f>
+        <f t="shared" si="27"/>
         <v>-0.40000000000000036</v>
       </c>
       <c r="O143" s="64">
-        <f>100*N143/M143</f>
+        <f t="shared" si="28"/>
         <v>-2.0000000000000018</v>
       </c>
       <c r="P143" s="62">
-        <f>-N143+L143</f>
+        <f t="shared" si="29"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="Q143" s="51" t="s">
@@ -11090,27 +11161,27 @@
         <v>24.5</v>
       </c>
       <c r="K144" s="63">
-        <f>E144-D144</f>
+        <f t="shared" si="24"/>
         <v>8.5</v>
       </c>
       <c r="L144" s="63">
-        <f>F144-D144</f>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="M144" s="63">
-        <f>J144-C144</f>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="N144" s="62">
-        <f>(G144+H144-I144+D144)*-1</f>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="O144" s="64">
-        <f>100*N144/M144</f>
+        <f t="shared" si="28"/>
         <v>-5</v>
       </c>
       <c r="P144" s="62">
-        <f>-N144+L144</f>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="Q144" s="51" t="s">
@@ -11158,27 +11229,27 @@
         <v>24</v>
       </c>
       <c r="K145" s="63">
-        <f>E145-D145</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="L145" s="63">
-        <f>F145-D145</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="M145" s="63">
-        <f>J145-C145</f>
+        <f t="shared" si="26"/>
         <v>19.5</v>
       </c>
       <c r="N145" s="62">
-        <f>(G145+H145-I145+D145)*-1</f>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="O145" s="64">
-        <f>100*N145/M145</f>
+        <f t="shared" si="28"/>
         <v>-5.1282051282051286</v>
       </c>
       <c r="P145" s="62">
-        <f>-N145+L145</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="Q145" s="51" t="s">
@@ -11226,27 +11297,27 @@
         <v>23.5</v>
       </c>
       <c r="K146" s="63">
-        <f>E146-D146</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="L146" s="63">
-        <f>F146-D146</f>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M146" s="63">
-        <f>J146-C146</f>
+        <f t="shared" si="26"/>
         <v>19.5</v>
       </c>
       <c r="N146" s="62">
-        <f>(G146+H146-I146+D146)*-1</f>
+        <f t="shared" si="27"/>
         <v>-0.5</v>
       </c>
       <c r="O146" s="64">
-        <f>100*N146/M146</f>
+        <f t="shared" si="28"/>
         <v>-2.5641025641025643</v>
       </c>
       <c r="P146" s="62">
-        <f>-N146+L146</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Q146" s="51" t="s">
@@ -11294,27 +11365,27 @@
         <v>39</v>
       </c>
       <c r="K147" s="63">
-        <f>E147-D147</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="L147" s="63">
-        <f>F147-D147</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="M147" s="63">
-        <f>J147-C147</f>
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
       <c r="N147" s="62">
-        <f>(G147+H147-I147+D147)*-1</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O147" s="64">
-        <f>100*N147/M147</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P147" s="62">
-        <f>-N147+L147</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="Q147" s="51" t="s">
@@ -11362,27 +11433,27 @@
         <v>31</v>
       </c>
       <c r="K148" s="63">
-        <f>E148-D148</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="L148" s="63">
-        <f>F148-D148</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="M148" s="63">
-        <f>J148-C148</f>
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
       <c r="N148" s="62">
-        <f>(G148+H148-I148+D148)*-1</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O148" s="64">
-        <f>100*N148/M148</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P148" s="62">
-        <f>-N148+L148</f>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="Q148" s="51" t="s">
@@ -11430,27 +11501,27 @@
         <v>27.5</v>
       </c>
       <c r="K149" s="63">
-        <f>E149-D149</f>
+        <f t="shared" si="24"/>
         <v>7.5</v>
       </c>
       <c r="L149" s="63">
-        <f>F149-D149</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="M149" s="63">
-        <f>J149-C149</f>
+        <f t="shared" si="26"/>
         <v>23.5</v>
       </c>
       <c r="N149" s="62">
-        <f>(G149+H149-I149+D149)*-1</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O149" s="64">
-        <f>100*N149/M149</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P149" s="62">
-        <f>-N149+L149</f>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="Q149" s="51" t="s">
@@ -11498,27 +11569,27 @@
         <v>26.5</v>
       </c>
       <c r="K150" s="63">
-        <f>E150-D150</f>
+        <f t="shared" si="24"/>
         <v>7.5</v>
       </c>
       <c r="L150" s="63">
-        <f>F150-D150</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="M150" s="63">
-        <f>J150-C150</f>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="N150" s="62">
-        <f>(G150+H150-I150+D150)*-1</f>
+        <f t="shared" si="27"/>
         <v>-0.5</v>
       </c>
       <c r="O150" s="64">
-        <f>100*N150/M150</f>
+        <f t="shared" si="28"/>
         <v>-2.1739130434782608</v>
       </c>
       <c r="P150" s="62">
-        <f>-N150+L150</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="Q150" s="51" t="s">
@@ -11566,27 +11637,27 @@
         <v>32</v>
       </c>
       <c r="K151" s="63">
-        <f>E151-D151</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="L151" s="63">
-        <f>F151-D151</f>
+        <f t="shared" si="25"/>
         <v>7.5</v>
       </c>
       <c r="M151" s="63">
-        <f>J151-C151</f>
+        <f t="shared" si="26"/>
         <v>19.5</v>
       </c>
       <c r="N151" s="62">
-        <f>(G151+H151-I151+D151)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="O151" s="64">
-        <f>100*N151/M151</f>
+        <f t="shared" si="28"/>
         <v>3.5897435897435903</v>
       </c>
       <c r="P151" s="62">
-        <f>-N151+L151</f>
+        <f t="shared" si="29"/>
         <v>6.8</v>
       </c>
       <c r="Q151" s="51" t="s">
@@ -11634,27 +11705,27 @@
         <v>29.5</v>
       </c>
       <c r="K152" s="63">
-        <f>E152-D152</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="L152" s="63">
-        <f>F152-D152</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="M152" s="63">
-        <f>J152-C152</f>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="N152" s="62">
-        <f>(G152+H152-I152+D152)*-1</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="O152" s="64">
-        <f>100*N152/M152</f>
+        <f t="shared" si="28"/>
         <v>2.2727272727272729</v>
       </c>
       <c r="P152" s="62">
-        <f>-N152+L152</f>
+        <f t="shared" si="29"/>
         <v>6.5</v>
       </c>
       <c r="Q152" s="51" t="s">
@@ -11702,27 +11773,27 @@
         <v>23.5</v>
       </c>
       <c r="K153" s="63">
-        <f>E153-D153</f>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="L153" s="63">
-        <f>F153-D153</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="M153" s="63">
-        <f>J153-C153</f>
+        <f t="shared" si="26"/>
         <v>17.5</v>
       </c>
       <c r="N153" s="62">
-        <f>(G153+H153-I153+D153)*-1</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O153" s="64">
-        <f>100*N153/M153</f>
+        <f t="shared" si="28"/>
         <v>5.7142857142857144</v>
       </c>
       <c r="P153" s="62">
-        <f>-N153+L153</f>
+        <f t="shared" si="29"/>
         <v>3.5</v>
       </c>
       <c r="Q153" s="51" t="s">
@@ -11770,27 +11841,27 @@
         <v>20.5</v>
       </c>
       <c r="K154" s="63">
-        <f>E154-D154</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="L154" s="63">
-        <f>F154-D154</f>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="M154" s="63">
-        <f>J154-C154</f>
+        <f t="shared" si="26"/>
         <v>16.5</v>
       </c>
       <c r="N154" s="62">
-        <f>(G154+H154-I154+D154)*-1</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O154" s="64">
-        <f>100*N154/M154</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P154" s="62">
-        <f>-N154+L154</f>
+        <f t="shared" si="29"/>
         <v>3.5</v>
       </c>
       <c r="Q154" s="51" t="s">
@@ -11813,6 +11884,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
